--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>Session Id</t>
   </si>
@@ -76,6 +76,44 @@
   </si>
   <si>
     <t>Speaker Ids</t>
+  </si>
+  <si>
+    <t>What happens to your privacy when data are moved on cloud?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays we heard often people that talk about privacy. Services, platform and so on explicitly specify what they can do with your data but what if you want not to allow them to read it?_x000D_
+_x000D_
+This talk will give a different overview about privacy by considering the case where we want to store data on an external server (such as Amazon, Azure, etc,) but allowing it to learn nothing about the data itself. We will also see pro and cons of the solutions that can be used to achieve this kind of privacy.</t>
+  </si>
+  <si>
+    <t>Mariagiovanna Rotundo</t>
+  </si>
+  <si>
+    <t>mariagiovannarotundo@gmail.com</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Short (20min)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Introductory</t>
+  </si>
+  <si>
+    <t>English, Italian</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>f8ffd44d-f336-4c8c-baf7-b3ec73cfff60</t>
   </si>
   <si>
     <t>Breaking Free from the Need for Male Approval in Professional Growth</t>
@@ -105,22 +143,13 @@
     <t>Full (40min)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Introductory</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>united kingdom</t>
   </si>
   <si>
-    <t>IWD</t>
+    <t>Sala Fibonacci</t>
   </si>
   <si>
     <t>2c19cb7e-ebbb-4b03-87f1-4a3b60296cac</t>
@@ -155,10 +184,7 @@
     <t>Yes, and I will be applying with Google's speaker program</t>
   </si>
   <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>seconda aula talk</t>
+    <t>Sala Pacinotti</t>
   </si>
   <si>
     <t>b8b99b42-456a-4934-a1ac-414d4ba2990b</t>
@@ -177,16 +203,13 @@
     <t>gregoriopalama@gmail.com</t>
   </si>
   <si>
-    <t>Cloud</t>
-  </si>
-  <si>
     <t>Italian, English</t>
   </si>
   <si>
     <t>Italia</t>
   </si>
   <si>
-    <t>terza aula talks</t>
+    <t>Sala Gentili</t>
   </si>
   <si>
     <t>3d9a3287-cc36-4428-b6b4-1dd1df1e70e8</t>
@@ -209,10 +232,7 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>English, Italian</t>
-  </si>
-  <si>
-    <t>Aula magna</t>
+    <t>Sala Ricci</t>
   </si>
   <si>
     <t>9c03c115-4eb4-4ac9-a320-1ab3ef9f6a04</t>
@@ -309,27 +329,7 @@
     <t>jgiak92@gmail.com</t>
   </si>
   <si>
-    <t>Short (20min)</t>
-  </si>
-  <si>
     <t>a4b0383e-705e-4e23-9929-338c8e7783b0</t>
-  </si>
-  <si>
-    <t>What happens to your privacy when data are moved on cloud?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowadays we heard often people that talk about privacy. Services, platform and so on explicitly specify what they can do with your data but what if you want not to allow them to read it?_x000D_
-_x000D_
-This talk will give a different overview about privacy by considering the case where we want to store data on an external server (such as Amazon, Azure, etc,) but allowing it to learn nothing about the data itself. We will also see pro and cons of the solutions that can be used to achieve this kind of privacy.</t>
-  </si>
-  <si>
-    <t>Mariagiovanna Rotundo</t>
-  </si>
-  <si>
-    <t>mariagiovannarotundo@gmail.com</t>
-  </si>
-  <si>
-    <t>f8ffd44d-f336-4c8c-baf7-b3ec73cfff60</t>
   </si>
   <si>
     <t>Overlay and Arazzo: From API Definitions to API Experiences</t>
@@ -683,13 +683,13 @@
     <t>🔧✨ Dietro le quinte dell’Animazione: il ruolo del Technical Director 🎬💡</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardando un prodotto d’animazione, vi siete mai chiesti: ma come fanno a realizzarlo? Dietro ogni produzione in CGI si cela un’enorme macchina organizzativa, in cui creatività, programmazione e problem-solving si intrecciano per dare vita a mondi straordinari._x000D_
+    <t xml:space="preserve">Guardando un prodotto d’animazione, vi siete mai chiesti: “ma come fanno a realizzarlo?”. Dietro ogni produzione in CGI si cela un’enorme macchina organizzativa, in cui creatività, programmazione e problem-solving si intrecciano per dare vita a mondi straordinari._x000D_
 _x000D_
 Al centro di questo processo c’è una figura chiave, spesso poco conosciuta ma essenziale per il successo di ogni progetto: il Technical Director (TD)._x000D_
 _x000D_
-In questo talk esploreremo il ruolo cruciale del TD nell'animazione moderna, scoprendo le sue responsabilità, gli strumenti che utilizza e il suo impatto sulla pipeline di produzione. Analizzeremo le sfide quotidiane, gli strumenti più usati, buttando un occhio sulle tecnologie emergenti che stanno rivoluzionando il settore e, per finire, come intraprendere questa carriera in un’industria tanto amata quanto ancora poco conosciuta dal punto di vista professionale._x000D_
+In questo talk esploreremo il ruolo cruciale del TD nell'animazione moderna, scoprendo le sue responsabilità e il suo impatto sulla pipeline di produzione. Analizzeremo le sfide quotidiane e gli strumenti più usati in questo ambito, buttando un occhio sulle tecnologie emergenti che stanno rivoluzionando il settore._x000D_
 _x000D_
-Se vi appassionano l’animazione, lo sviluppo software o la tecnologia applicata alla creatività, questo talk vi offrirà uno sguardo esclusivo su una delle professioni più dinamiche e richieste nel mondo dell’entertainment digitale 🚀🎬</t>
+Se vi appassionano l’animazione, lo sviluppo software e la tecnologia applicata alla creatività, questo talk vi offrirà uno sguardo esclusivo su una delle professioni più dinamiche e richieste nel mondo dell’entertainment digitale 🚀🎬</t>
   </si>
   <si>
     <t>Silvia Raggi</t>
@@ -723,7 +723,7 @@
     <t>8730d40b-3fb7-450d-ab71-08c9dd81a48a</t>
   </si>
   <si>
-    <t>Make your model think with GRPO (even if you are GPU poor)</t>
+    <t>Addestra il tuo LLM a pensare con GRPO—ora anche su piccole GPU!</t>
   </si>
   <si>
     <t xml:space="preserve">DeepSeek R1, uno dei large language model più discussi del momento, ha introdotto GRPO, un nuovo algoritmo di reinforcement learning che permetterebbe di addestrare modelli che "ragionano". Ma è davvero così?_x000D_
@@ -839,7 +839,7 @@
     <t>Panepinto Zayati</t>
   </si>
   <si>
-    <t>Research Assistant @BioRobotics Institute (Sant’Anna); M.Sc Bionics Engineering and B.Sc Electronics Engineering; STEM advocate and speaker; Miss Universe Italy 2023</t>
+    <t>Research Assistant @ BioRobotics Institute (Sant’Anna); Miss Universe Italy 2023</t>
   </si>
   <si>
     <t>STEM activist, researcher, and communicator. Currently a research assistant @BioRobotics Institute, Sant’Anna, she holds a Master’s in Bionics Engineering and a Bachelor's in Electronics Engineering. She is a speaker and science communicator to challenge STEM stereotypes and bridge the gap between science and society. She teaches STEM courses in schools, as testimonial of law n.187. She is the STEM ambassador for Samsung Italy, and Miss Universe Italy 2023.</t>
@@ -1171,6 +1171,16 @@
     <t>Sponsale</t>
   </si>
   <si>
+    <t>Student @ UniPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michele Sponsale è un programmatore con una passione per il machine learning, la programmazione funzionale, la teoria dei tipi e i metodi formali. Ha lavorato come full-stack developer utilizzando varie tecnologie, tra cui Flutter e Firebase._x000D_
+Quando non programma o legge papers, aiuta il GDG Pisa nell'organizzazione di eventi per la community tech locale.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/michele-sponsale-664b8010b</t>
+  </si>
+  <si>
     <t>https://sessionize.com/image/fb22-400o400o1-sDPsk9LFDANAX36hwyS15a.jpg</t>
   </si>
   <si>
@@ -1180,7 +1190,7 @@
     <t>Raggi</t>
   </si>
   <si>
-    <t>Technical Director @ Red Monk Studio</t>
+    <t>Technical Director @ Red Monk Studio; GDG Firenze Organizer</t>
   </si>
   <si>
     <t xml:space="preserve">Ingegnere Informatico specializzato in Grafica e Multimedia🎬_x000D_
@@ -1843,7 +1853,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>850062</v>
+        <v>854505</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>21</v>
@@ -1881,73 +1891,67 @@
       <c r="M2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O2" s="5">
-        <v>45720.697022025459</v>
+      <c r="N2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>45759.416666666664</v>
-      </c>
-      <c r="R2" s="0">
-        <v>50</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>860330</v>
+        <v>850062</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="N3" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O3" s="5">
-        <v>45715.323366666664</v>
+        <v>45720.697022025459</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="5">
         <v>45759.416666666664</v>
@@ -1956,57 +1960,57 @@
         <v>50</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>862668</v>
+        <v>860330</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="M4" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N4" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O4" s="5">
-        <v>45730.456549537033</v>
+        <v>45715.323366666664</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="5">
         <v>45759.416666666664</v>
@@ -2015,33 +2019,33 @@
         <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>862926</v>
+        <v>862668</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>27</v>
@@ -2050,22 +2054,22 @@
         <v>28</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="N5" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O5" s="5">
-        <v>45714.860351701383</v>
+        <v>45730.456549537033</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="5">
         <v>45759.416666666664</v>
@@ -2074,33 +2078,33 @@
         <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>797393</v>
+        <v>862926</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>27</v>
@@ -2109,57 +2113,57 @@
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N6" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O6" s="5">
-        <v>45714.416337303242</v>
+        <v>45714.860351701383</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="5">
-        <v>45759.451388888891</v>
+        <v>45759.416666666664</v>
       </c>
       <c r="R6" s="0">
         <v>50</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>821974</v>
+        <v>797393</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>27</v>
@@ -2174,16 +2178,16 @@
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N7" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O7" s="5">
-        <v>45714.488690428239</v>
+        <v>45714.416337303242</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="5">
         <v>45759.451388888891</v>
@@ -2192,33 +2196,33 @@
         <v>50</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>838947</v>
+        <v>821974</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>74</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>27</v>
@@ -2227,22 +2231,22 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N8" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O8" s="5">
-        <v>45714.437480636574</v>
+        <v>45714.488690428239</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="5">
         <v>45759.451388888891</v>
@@ -2256,7 +2260,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>862301</v>
+        <v>838947</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>78</v>
@@ -2271,37 +2275,37 @@
         <v>81</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N9" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O9" s="5">
-        <v>45714.446214780088</v>
+        <v>45714.437480636574</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="5">
         <v>45759.451388888891</v>
@@ -2310,63 +2314,63 @@
         <v>50</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>796625</v>
+        <v>862301</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N10" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O10" s="5">
-        <v>45714.444721261571</v>
+        <v>45714.446214780088</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="5">
-        <v>45759.486111111109</v>
+        <v>45759.451388888891</v>
       </c>
       <c r="R10" s="0">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U10" s="0" t="s">
         <v>90</v>
@@ -2374,7 +2378,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>854505</v>
+        <v>796625</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>91</v>
@@ -2392,10 +2396,10 @@
         <v>93</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>27</v>
@@ -2404,22 +2408,22 @@
         <v>28</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="N11" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O11" s="5">
+        <v>45714.444721261571</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="5">
         <v>45759.486111111109</v>
@@ -2451,10 +2455,10 @@
         <v>98</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>27</v>
@@ -2463,13 +2467,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N12" s="5">
         <v>45714.409613923606</v>
@@ -2478,7 +2482,7 @@
         <v>45714.545749652774</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="5">
         <v>45759.486111111109</v>
@@ -2510,25 +2514,25 @@
         <v>103</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>30</v>
@@ -2537,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="5">
         <v>45759.486111111109</v>
@@ -2569,10 +2573,10 @@
         <v>108</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>27</v>
@@ -2581,13 +2585,13 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N14" s="5">
         <v>45714.409613923606</v>
@@ -2596,7 +2600,7 @@
         <v>45715.407090312496</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="5">
         <v>45759.506944444445</v>
@@ -2628,10 +2632,10 @@
         <v>113</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>27</v>
@@ -2640,13 +2644,13 @@
         <v>28</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N15" s="5">
         <v>45714.409613923606</v>
@@ -2655,7 +2659,7 @@
         <v>45714.440862071759</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="5">
         <v>45759.506944444445</v>
@@ -2687,25 +2691,25 @@
         <v>120</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N16" s="5">
         <v>45714.409613923606</v>
@@ -2714,7 +2718,7 @@
         <v>45714.5267258449</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="5">
         <v>45759.506944444445</v>
@@ -2746,25 +2750,25 @@
         <v>124</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>30</v>
@@ -2773,7 +2777,7 @@
         <v>30</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="5">
         <v>45759.506944444445</v>
@@ -2805,25 +2809,25 @@
         <v>131</v>
       </c>
       <c r="G18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N18" s="5">
         <v>45714.409613923606</v>
@@ -2832,7 +2836,7 @@
         <v>45715.34785543981</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="5">
         <v>45759.583333333328</v>
@@ -2864,25 +2868,25 @@
         <v>135</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N19" s="5">
         <v>45714.409613923606</v>
@@ -2891,7 +2895,7 @@
         <v>45714.435481863424</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="5">
         <v>45759.583333333328</v>
@@ -2923,10 +2927,10 @@
         <v>140</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>27</v>
@@ -2935,13 +2939,13 @@
         <v>28</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N20" s="5">
         <v>45714.409613923606</v>
@@ -2950,7 +2954,7 @@
         <v>45714.595782326389</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="5">
         <v>45759.583333333328</v>
@@ -2982,22 +2986,22 @@
         <v>145</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="L21" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>147</v>
@@ -3009,7 +3013,7 @@
         <v>45714.4301599537</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="5">
         <v>45759.583333333328</v>
@@ -3041,10 +3045,10 @@
         <v>151</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>27</v>
@@ -3053,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>30</v>
@@ -3068,7 +3072,7 @@
         <v>45714.433191932869</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="5">
         <v>45759.618055555555</v>
@@ -3100,10 +3104,10 @@
         <v>157</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>27</v>
@@ -3112,13 +3116,13 @@
         <v>28</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N23" s="5">
         <v>45714.409613923606</v>
@@ -3127,7 +3131,7 @@
         <v>45714.551208599536</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="5">
         <v>45759.618055555555</v>
@@ -3159,10 +3163,10 @@
         <v>162</v>
       </c>
       <c r="G24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>27</v>
@@ -3171,13 +3175,13 @@
         <v>164</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N24" s="5">
         <v>45714.409613923606</v>
@@ -3186,7 +3190,7 @@
         <v>45714.418413229163</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="5">
         <v>45759.618055555555</v>
@@ -3218,19 +3222,19 @@
         <v>168</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>30</v>
@@ -3245,7 +3249,7 @@
         <v>45714.481459178241</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="5">
         <v>45759.618055555555</v>
@@ -3277,10 +3281,10 @@
         <v>174</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>27</v>
@@ -3289,13 +3293,13 @@
         <v>28</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N26" s="5">
         <v>45714.409613923606</v>
@@ -3304,7 +3308,7 @@
         <v>45714.436776504626</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="5">
         <v>45759.652777777774</v>
@@ -3336,25 +3340,25 @@
         <v>179</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N27" s="5">
         <v>45714.409613923606</v>
@@ -3363,7 +3367,7 @@
         <v>45714.431661076385</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="5">
         <v>45759.652777777774</v>
@@ -3395,10 +3399,10 @@
         <v>184</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>27</v>
@@ -3407,13 +3411,13 @@
         <v>28</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N28" s="5">
         <v>45714.409613923606</v>
@@ -3422,7 +3426,7 @@
         <v>45716.368220023149</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="5">
         <v>45759.652777777774</v>
@@ -3454,19 +3458,19 @@
         <v>189</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>30</v>
@@ -3481,7 +3485,7 @@
         <v>45714.463723611108</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="5">
         <v>45759.652777777774</v>
@@ -3513,10 +3517,10 @@
         <v>195</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>27</v>
@@ -3525,13 +3529,13 @@
         <v>28</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N30" s="5">
         <v>45714.409613923606</v>
@@ -3540,7 +3544,7 @@
         <v>45714.425511076384</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="5">
         <v>45759.670138888891</v>
@@ -3572,10 +3576,10 @@
         <v>200</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>27</v>
@@ -3584,13 +3588,13 @@
         <v>28</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>30</v>
@@ -3599,7 +3603,7 @@
         <v>30</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="5">
         <v>45759.670138888891</v>
@@ -3631,10 +3635,10 @@
         <v>205</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>27</v>
@@ -3643,10 +3647,10 @@
         <v>28</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>207</v>
@@ -3658,7 +3662,7 @@
         <v>45695.538855474537</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q32" s="5">
         <v>45759.708333333328</v>
@@ -3690,25 +3694,25 @@
         <v>211</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>30</v>
@@ -3717,7 +3721,7 @@
         <v>30</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q33" s="5">
         <v>45759.708333333328</v>
@@ -3749,10 +3753,10 @@
         <v>216</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>27</v>
@@ -3761,13 +3765,13 @@
         <v>28</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N34" s="5">
         <v>45714.409613923606</v>
@@ -3776,7 +3780,7 @@
         <v>45714.806715277773</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q34" s="5">
         <v>45759.708333333328</v>
@@ -3808,10 +3812,10 @@
         <v>221</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>27</v>
@@ -3820,13 +3824,13 @@
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>30</v>
@@ -3835,13 +3839,13 @@
         <v>30</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="5">
-        <v>45759.725694444445</v>
+        <v>45759.708333333328</v>
       </c>
       <c r="R35" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U35" s="0" t="s">
         <v>223</v>
@@ -3867,10 +3871,10 @@
         <v>226</v>
       </c>
       <c r="G36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>27</v>
@@ -3879,13 +3883,13 @@
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N36" s="5">
         <v>45714.409613923606</v>
@@ -3894,7 +3898,7 @@
         <v>45714.422330590278</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q36" s="5">
         <v>45759.743055555555</v>
@@ -3994,7 +3998,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>250</v>
@@ -4003,7 +4007,7 @@
         <v>251</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>252</v>
@@ -4096,7 +4100,7 @@
         <v>277</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>278</v>
@@ -4116,7 +4120,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>283</v>
@@ -4125,7 +4129,7 @@
         <v>284</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>285</v>
@@ -4145,7 +4149,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>289</v>
@@ -4154,7 +4158,7 @@
         <v>290</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>291</v>
@@ -4200,7 +4204,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>302</v>
@@ -4209,7 +4213,7 @@
         <v>303</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>304</v>
@@ -4414,8 +4418,17 @@
       <c r="D17" s="0" t="s">
         <v>212</v>
       </c>
+      <c r="E17" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="M17" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18">
@@ -4423,25 +4436,25 @@
         <v>202</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>201</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19">
@@ -4449,34 +4462,34 @@
         <v>137</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20">
@@ -4484,34 +4497,34 @@
         <v>208</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>206</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21">
@@ -4519,127 +4532,127 @@
         <v>165</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>163</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>130</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25">
@@ -4647,28 +4660,28 @@
         <v>100</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>99</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26">
@@ -4676,34 +4689,34 @@
         <v>115</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>114</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27">
@@ -4711,25 +4724,25 @@
         <v>154</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28">
@@ -4737,75 +4750,75 @@
         <v>105</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30">
@@ -4813,57 +4826,57 @@
         <v>110</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>281</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32">
@@ -4871,28 +4884,28 @@
         <v>228</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>227</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33">
@@ -4900,31 +4913,31 @@
         <v>186</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>185</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34">
@@ -4935,54 +4948,54 @@
         <v>260</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36">
@@ -4990,66 +5003,66 @@
         <v>148</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>146</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38">
@@ -5057,28 +5070,28 @@
         <v>171</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -78,12 +78,12 @@
     <t>Speaker Ids</t>
   </si>
   <si>
-    <t>What happens to your privacy when data are moved on cloud?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowadays we heard often people that talk about privacy. Services, platform and so on explicitly specify what they can do with your data but what if you want not to allow them to read it?_x000D_
+    <t>How can you keep your online searches secret?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays, privacy is a topic that comes up more and more often. Whenever you use a service or a platform, the provider typically knows exactly what you're doing and what you're interested in. But what if you don’t want the providers to know?_x000D_
 _x000D_
-This talk will give a different overview about privacy by considering the case where we want to store data on an external server (such as Amazon, Azure, etc,) but allowing it to learn nothing about the data itself. We will also see pro and cons of the solutions that can be used to achieve this kind of privacy.</t>
+In this talk, we'll explore a different perspective on privacy, specifically, the scenario where you want to access data from a public database without revealing what you're looking for. We’ll discuss how this can be done, along with the advantages and disadvantages of the various solutions available to achieve this kind of privacy.</t>
   </si>
   <si>
     <t>Mariagiovanna Rotundo</t>
@@ -104,7 +104,7 @@
     <t>Introductory</t>
   </si>
   <si>
-    <t>English, Italian</t>
+    <t>English</t>
   </si>
   <si>
     <t>No</t>
@@ -143,9 +143,6 @@
     <t>Full (40min)</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>united kingdom</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>English, Italian</t>
   </si>
   <si>
     <t>Sala Ricci</t>
@@ -1675,7 +1675,7 @@
     <t>Ph.D. student @ University of Pisa | Lead @ GDG and WTM Pisa | WTM Ambassador</t>
   </si>
   <si>
-    <t>Hi! I'm a Ph.D. student at the computer science department of the University of Pisa.</t>
+    <t>Hi! I'm a Ph.D. student at the computer science department of the University of Pisa. The main topics I work on are Algorithms, data structures, and data compression. In my spare time, I’m an active member of the two local communities GDG and WTM Pisa, which organize free talks about different topics and technologies in the field of computer science. I'm an Ambassador of WTM program that wants to support diversity and inclusion in IT world.</t>
   </si>
   <si>
     <t>http://www.linkedin.com/in/mariagiovanna-rotundo</t>
@@ -1936,13 +1936,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="5">
         <v>45714.409613923606</v>
@@ -1951,7 +1951,7 @@
         <v>45720.697022025459</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="5">
         <v>45759.416666666664</v>
@@ -1960,7 +1960,7 @@
         <v>50</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -1968,22 +1968,22 @@
         <v>860330</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>38</v>
@@ -1992,13 +1992,13 @@
         <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>31</v>
@@ -2010,7 +2010,7 @@
         <v>45715.323366666664</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="5">
         <v>45759.416666666664</v>
@@ -2019,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -2027,19 +2027,19 @@
         <v>862668</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>25</v>
@@ -2054,13 +2054,13 @@
         <v>28</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>58</v>
       </c>
       <c r="N5" s="5">
         <v>45714.409613923606</v>
@@ -2069,7 +2069,7 @@
         <v>45730.456549537033</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="5">
         <v>45759.416666666664</v>
@@ -2078,7 +2078,7 @@
         <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -2086,22 +2086,22 @@
         <v>862926</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>38</v>
@@ -2113,7 +2113,7 @@
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>30</v>
@@ -2160,7 +2160,7 @@
         <v>70</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>38</v>
@@ -2172,7 +2172,7 @@
         <v>28</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>30</v>
@@ -2231,7 +2231,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>30</v>
@@ -2246,7 +2246,7 @@
         <v>45714.488690428239</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="5">
         <v>45759.451388888891</v>
@@ -2290,7 +2290,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>30</v>
@@ -2305,7 +2305,7 @@
         <v>45714.437480636574</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="5">
         <v>45759.451388888891</v>
@@ -2346,10 +2346,10 @@
         <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>30</v>
@@ -2364,7 +2364,7 @@
         <v>45714.446214780088</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="5">
         <v>45759.451388888891</v>
@@ -2408,7 +2408,7 @@
         <v>28</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>30</v>
@@ -2423,7 +2423,7 @@
         <v>45714.444721261571</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="5">
         <v>45759.486111111109</v>
@@ -2467,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>30</v>
@@ -2523,16 +2523,16 @@
         <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>30</v>
@@ -2541,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="5">
         <v>45759.486111111109</v>
@@ -2585,7 +2585,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>30</v>
@@ -2600,7 +2600,7 @@
         <v>45715.407090312496</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="5">
         <v>45759.506944444445</v>
@@ -2644,7 +2644,7 @@
         <v>28</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>30</v>
@@ -2659,7 +2659,7 @@
         <v>45714.440862071759</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="5">
         <v>45759.506944444445</v>
@@ -2691,7 +2691,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>26</v>
@@ -2700,10 +2700,10 @@
         <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>30</v>
@@ -2759,10 +2759,10 @@
         <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>30</v>
@@ -2777,7 +2777,7 @@
         <v>30</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="5">
         <v>45759.506944444445</v>
@@ -2809,7 +2809,7 @@
         <v>131</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>38</v>
@@ -2818,16 +2818,16 @@
         <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N18" s="5">
         <v>45714.409613923606</v>
@@ -2836,7 +2836,7 @@
         <v>45715.34785543981</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="5">
         <v>45759.583333333328</v>
@@ -2877,10 +2877,10 @@
         <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>30</v>
@@ -2895,7 +2895,7 @@
         <v>45714.435481863424</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="5">
         <v>45759.583333333328</v>
@@ -2939,7 +2939,7 @@
         <v>28</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>30</v>
@@ -2954,7 +2954,7 @@
         <v>45714.595782326389</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="5">
         <v>45759.583333333328</v>
@@ -2995,13 +2995,13 @@
         <v>27</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>147</v>
@@ -3057,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>30</v>
@@ -3116,13 +3116,13 @@
         <v>28</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N23" s="5">
         <v>45714.409613923606</v>
@@ -3131,7 +3131,7 @@
         <v>45714.551208599536</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="5">
         <v>45759.618055555555</v>
@@ -3163,7 +3163,7 @@
         <v>162</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>38</v>
@@ -3175,7 +3175,7 @@
         <v>164</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>30</v>
@@ -3190,7 +3190,7 @@
         <v>45714.418413229163</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="5">
         <v>45759.618055555555</v>
@@ -3231,10 +3231,10 @@
         <v>27</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>30</v>
@@ -3249,7 +3249,7 @@
         <v>45714.481459178241</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="5">
         <v>45759.618055555555</v>
@@ -3293,7 +3293,7 @@
         <v>28</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>30</v>
@@ -3308,7 +3308,7 @@
         <v>45714.436776504626</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="5">
         <v>45759.652777777774</v>
@@ -3340,7 +3340,7 @@
         <v>179</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>38</v>
@@ -3349,10 +3349,10 @@
         <v>27</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
@@ -3367,7 +3367,7 @@
         <v>45714.431661076385</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="5">
         <v>45759.652777777774</v>
@@ -3399,7 +3399,7 @@
         <v>184</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>26</v>
@@ -3411,13 +3411,13 @@
         <v>28</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N28" s="5">
         <v>45714.409613923606</v>
@@ -3426,7 +3426,7 @@
         <v>45716.368220023149</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="5">
         <v>45759.652777777774</v>
@@ -3467,10 +3467,10 @@
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>30</v>
@@ -3529,7 +3529,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>30</v>
@@ -3544,7 +3544,7 @@
         <v>45714.425511076384</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="5">
         <v>45759.670138888891</v>
@@ -3588,7 +3588,7 @@
         <v>28</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>30</v>
@@ -3603,7 +3603,7 @@
         <v>30</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="5">
         <v>45759.670138888891</v>
@@ -3635,7 +3635,7 @@
         <v>205</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>38</v>
@@ -3647,10 +3647,10 @@
         <v>28</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M32" s="0" t="s">
         <v>207</v>
@@ -3694,7 +3694,7 @@
         <v>211</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>38</v>
@@ -3703,10 +3703,10 @@
         <v>27</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>27</v>
@@ -3721,7 +3721,7 @@
         <v>30</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="5">
         <v>45759.708333333328</v>
@@ -3765,7 +3765,7 @@
         <v>28</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>30</v>
@@ -3780,7 +3780,7 @@
         <v>45714.806715277773</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q34" s="5">
         <v>45759.708333333328</v>
@@ -3824,7 +3824,7 @@
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>30</v>
@@ -3839,7 +3839,7 @@
         <v>30</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="5">
         <v>45759.708333333328</v>
@@ -3871,7 +3871,7 @@
         <v>226</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>38</v>
@@ -3883,7 +3883,7 @@
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>30</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>283</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>302</v>
@@ -4213,7 +4213,7 @@
         <v>303</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>304</v>
@@ -4605,7 +4605,7 @@
         <v>398</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>399</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>444</v>
@@ -4794,7 +4794,7 @@
         <v>445</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>446</v>

--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -78,7 +78,7 @@
     <t>Speaker Ids</t>
   </si>
   <si>
-    <t>How can you keep your online searches secret?</t>
+    <t>More than Incognito: server-side secret searches</t>
   </si>
   <si>
     <t xml:space="preserve">Nowadays, privacy is a topic that comes up more and more often. Whenever you use a service or a platform, the provider typically knows exactly what you're doing and what you're interested in. But what if you don’t want the providers to know?_x000D_

--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
   <si>
     <t>Session Id</t>
   </si>
@@ -76,44 +76,6 @@
   </si>
   <si>
     <t>Speaker Ids</t>
-  </si>
-  <si>
-    <t>More than Incognito: server-side secret searches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nowadays, privacy is a topic that comes up more and more often. Whenever you use a service or a platform, the provider typically knows exactly what you're doing and what you're interested in. But what if you don’t want the providers to know?_x000D_
-_x000D_
-In this talk, we'll explore a different perspective on privacy, specifically, the scenario where you want to access data from a public database without revealing what you're looking for. We’ll discuss how this can be done, along with the advantages and disadvantages of the various solutions available to achieve this kind of privacy.</t>
-  </si>
-  <si>
-    <t>Mariagiovanna Rotundo</t>
-  </si>
-  <si>
-    <t>mariagiovannarotundo@gmail.com</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>Short (20min)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Introductory</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>f8ffd44d-f336-4c8c-baf7-b3ec73cfff60</t>
   </si>
   <si>
     <t>Breaking Free from the Need for Male Approval in Professional Growth</t>
@@ -143,6 +105,18 @@
     <t>Full (40min)</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Introductory</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>united kingdom</t>
   </si>
   <si>
@@ -181,6 +155,9 @@
     <t>Yes, and I will be applying with Google's speaker program</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>Sala Pacinotti</t>
   </si>
   <si>
@@ -200,7 +177,7 @@
     <t>gregoriopalama@gmail.com</t>
   </si>
   <si>
-    <t>Italian, English</t>
+    <t>Cloud</t>
   </si>
   <si>
     <t>Italia</t>
@@ -227,9 +204,6 @@
   </si>
   <si>
     <t>Mobile</t>
-  </si>
-  <si>
-    <t>English, Italian</t>
   </si>
   <si>
     <t>Sala Ricci</t>
@@ -329,7 +303,27 @@
     <t>jgiak92@gmail.com</t>
   </si>
   <si>
+    <t>Short (20min)</t>
+  </si>
+  <si>
     <t>a4b0383e-705e-4e23-9929-338c8e7783b0</t>
+  </si>
+  <si>
+    <t>More than Incognito: server-side secret searches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nowadays, privacy is a topic that comes up more and more often. Whenever you use a service or a platform, the provider typically knows exactly what you're doing and what you're interested in. But what if you don’t want the providers to know?_x000D_
+_x000D_
+In this talk, we'll explore a different perspective on privacy, specifically, the scenario where you want to access data from a public database without revealing what you're looking for. We’ll discuss how this can be done, along with the advantages and disadvantages of the various solutions available to achieve this kind of privacy.</t>
+  </si>
+  <si>
+    <t>Mariagiovanna Rotundo</t>
+  </si>
+  <si>
+    <t>mariagiovannarotundo@gmail.com</t>
+  </si>
+  <si>
+    <t>f8ffd44d-f336-4c8c-baf7-b3ec73cfff60</t>
   </si>
   <si>
     <t>Overlay and Arazzo: From API Definitions to API Experiences</t>
@@ -346,6 +340,9 @@
     <t>gloria.ciavarrini@gmail.com</t>
   </si>
   <si>
+    <t>English, Italian</t>
+  </si>
+  <si>
     <t>b1ee9ed2-fb20-4888-9d86-2835539d3528</t>
   </si>
   <si>
@@ -428,6 +425,77 @@
   </si>
   <si>
     <t>527b2a7b-fd99-4ba2-a076-5703226fbf03</t>
+  </si>
+  <si>
+    <t>Crafting Digital Twins with an Actor Model in Rust</t>
+  </si>
+  <si>
+    <t>Digital Twins represent a powerful paradigm for modelling complex IoT systems, yet practical implementations often fall short of theoretical promises. This talk cuts through the hype by demonstrating a robust approach based on an Actor Model pattern implemented in Rust, bridging the gap between conceptual frameworks and pragmatic engineering. Concurrency fundamentals, message-driven design patterns, and real-world use cases illustrate how Rust’s safety and performance guarantees enable maintainable, production-ready Digital Twin solutions.</t>
+  </si>
+  <si>
+    <t>Gianluca Insolvibile</t>
+  </si>
+  <si>
+    <t>g.insolvibile@nextworks.it</t>
+  </si>
+  <si>
+    <t>849b385a-5cc2-4a5e-a32e-b3e04c5ed10e</t>
+  </si>
+  <si>
+    <t>Personalizzare l'IA per il Diritto: Addestrare Modelli su Dataset Legali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’intelligenza artificiale può essere adattata per compiti specifici tramite il fine-tuning di modelli pre-addestrati, trasformandoli in strumenti altamente specializzati. In questo talk presenterò un progetto pratico basato su GPT-2, personalizzato per comprendere e generare testi giuridici, con un focus sull’interpretazione del Codice Civile e Penale e sulla creazione automatizzata di querele. Il progetto sfrutta tecnologie open source per ottimizzare un modello di linguaggio già esistente, rendendolo capace di rispondere a domande legali e generare documenti strutturati con un linguaggio formale e contestualizzato._x000D_
+Durante l’intervento illustrerò il workflow seguito, suddiviso in tre fasi principali. La prima riguarda la preparazione del dataset, che prevede l’estrazione dei testi normativi tramite web scraping e parsing, seguita dalla pulizia e tokenizzazione del testo con NLTK e Hugging Face Tokenizers, per garantire un’elaborazione efficace del linguaggio giuridico. La seconda fase si concentra sul fine-tuning di GPT-2, eseguito con PyTorch e TensorFlow per adattare il modello al dominio legale. Verranno ottimizzati iperparametri chiave come batch size, learning rate ed epoche, applicando tecniche di early stopping e gradient accumulation per migliorare le prestazioni su hardware limitato. Infine, nella terza fase, verrà presentata l’interfaccia web, sviluppata con Flask, che consente agli utenti di inserire domande giuridiche o descrivere un caso, ricevendo in risposta un’analisi legale dettagliata o una bozza di querela generata automaticamente dal modello._x000D_
+Il talk si concluderà con una demo live, dimostrando come la personalizzazione di GPT-2 possa trasformare un modello generico in uno strumento avanzato per il settore giuridico. L'obiettivo è mostrare come sia possibile adattare un LLM alle esigenze specifiche di qualsiasi organizzazione o settore.</t>
+  </si>
+  <si>
+    <t>Daniele Mario Areddu</t>
+  </si>
+  <si>
+    <t>danielemario@areddu.it</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>919f1380-f9b7-40ce-97a9-545be75734ae</t>
+  </si>
+  <si>
+    <t>How to give your first Talk without freaking out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public speaking can be intimidating: where do we start from? How to find the right topic? How to put together a nice presentation? Will the audience ask me questions? In this talk I will provide first hand tips I learned the hard way on how to go from zero to give your first public talk with confidence._x000D_
+</t>
+  </si>
+  <si>
+    <t>Federico Paolinelli</t>
+  </si>
+  <si>
+    <t>fedepaol@gmail.com</t>
+  </si>
+  <si>
+    <t>d26a7c22-25fc-466d-89ff-c0a77c93f820</t>
+  </si>
+  <si>
+    <t>Beats in the Browser - Coding Music with JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript is extremely versatile. We use it to build frontend, backend, desktop and mobile apps. But did you know you can even create music with it ?!_x000D_
+_x000D_
+In this talk, Rowdy will show you how easy and fun it is to code your own music with the Web Audio API. As a bonus, he will throw in the Web MIDI API and Web Bluetooth API to really get the party started. Let’s turn up the bass!</t>
+  </si>
+  <si>
+    <t>Rowdy Rabouw</t>
+  </si>
+  <si>
+    <t>hi@rowdy.codes</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>f5c30de4-cd93-4022-97f6-b0a58c92197c</t>
   </si>
   <si>
     <t>La Musica Del Malware</t>
@@ -449,57 +517,6 @@
   </si>
   <si>
     <t>96c13f58-033e-4f7a-8401-edcc8370009b, 3d9a3287-cc36-4428-b6b4-1dd1df1e70e8</t>
-  </si>
-  <si>
-    <t>Crafting Digital Twins with an Actor Model in Rust</t>
-  </si>
-  <si>
-    <t>Digital Twins represent a powerful paradigm for modelling complex IoT systems, yet practical implementations often fall short of theoretical promises. This talk cuts through the hype by demonstrating a robust approach based on an Actor Model pattern implemented in Rust, bridging the gap between conceptual frameworks and pragmatic engineering. Concurrency fundamentals, message-driven design patterns, and real-world use cases illustrate how Rust’s safety and performance guarantees enable maintainable, production-ready Digital Twin solutions.</t>
-  </si>
-  <si>
-    <t>Gianluca Insolvibile</t>
-  </si>
-  <si>
-    <t>g.insolvibile@nextworks.it</t>
-  </si>
-  <si>
-    <t>849b385a-5cc2-4a5e-a32e-b3e04c5ed10e</t>
-  </si>
-  <si>
-    <t>How to give your first Talk without freaking out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public speaking can be intimidating: where do we start from? How to find the right topic? How to put together a nice presentation? Will the audience ask me questions? In this talk I will provide first hand tips I learned the hard way on how to go from zero to give your first public talk with confidence._x000D_
-</t>
-  </si>
-  <si>
-    <t>Federico Paolinelli</t>
-  </si>
-  <si>
-    <t>fedepaol@gmail.com</t>
-  </si>
-  <si>
-    <t>d26a7c22-25fc-466d-89ff-c0a77c93f820</t>
-  </si>
-  <si>
-    <t>Beats in the Browser - Coding Music with JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript is extremely versatile. We use it to build frontend, backend, desktop and mobile apps. But did you know you can even create music with it ?!_x000D_
-_x000D_
-In this talk, Rowdy will show you how easy and fun it is to code your own music with the Web Audio API. As a bonus, he will throw in the Web MIDI API and Web Bluetooth API to really get the party started. Let’s turn up the bass!</t>
-  </si>
-  <si>
-    <t>Rowdy Rabouw</t>
-  </si>
-  <si>
-    <t>hi@rowdy.codes</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>f5c30de4-cd93-4022-97f6-b0a58c92197c</t>
   </si>
   <si>
     <t>Sailing the Waters using UI/UX Reinforced by Security</t>
@@ -539,63 +556,6 @@
     <t>493590fc-c38a-4f7f-b76f-e81d7cf6207a</t>
   </si>
   <si>
-    <t>Personalizzare l'IA per il Diritto: Addestrare Modelli su Dataset Legali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’intelligenza artificiale può essere adattata per compiti specifici tramite il fine-tuning di modelli pre-addestrati, trasformandoli in strumenti altamente specializzati. In questo talk presenterò un progetto pratico basato su GPT-2, personalizzato per comprendere e generare testi giuridici, con un focus sull’interpretazione del Codice Civile e Penale e sulla creazione automatizzata di querele. Il progetto sfrutta tecnologie open source per ottimizzare un modello di linguaggio già esistente, rendendolo capace di rispondere a domande legali e generare documenti strutturati con un linguaggio formale e contestualizzato._x000D_
-Durante l’intervento illustrerò il workflow seguito, suddiviso in tre fasi principali. La prima riguarda la preparazione del dataset, che prevede l’estrazione dei testi normativi tramite web scraping e parsing, seguita dalla pulizia e tokenizzazione del testo con NLTK e Hugging Face Tokenizers, per garantire un’elaborazione efficace del linguaggio giuridico. La seconda fase si concentra sul fine-tuning di GPT-2, eseguito con PyTorch e TensorFlow per adattare il modello al dominio legale. Verranno ottimizzati iperparametri chiave come batch size, learning rate ed epoche, applicando tecniche di early stopping e gradient accumulation per migliorare le prestazioni su hardware limitato. Infine, nella terza fase, verrà presentata l’interfaccia web, sviluppata con Flask, che consente agli utenti di inserire domande giuridiche o descrivere un caso, ricevendo in risposta un’analisi legale dettagliata o una bozza di querela generata automaticamente dal modello._x000D_
-Il talk si concluderà con una demo live, dimostrando come la personalizzazione di GPT-2 possa trasformare un modello generico in uno strumento avanzato per il settore giuridico. L'obiettivo è mostrare come sia possibile adattare un LLM alle esigenze specifiche di qualsiasi organizzazione o settore.</t>
-  </si>
-  <si>
-    <t>Daniele Mario Areddu</t>
-  </si>
-  <si>
-    <t>danielemario@areddu.it</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>919f1380-f9b7-40ce-97a9-545be75734ae</t>
-  </si>
-  <si>
-    <t>Extending Kubernetes: Building torproxy for Anonymous Container Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torproxy is an open source Kubernetes controller written in Go to enable tor utilities in your k8s cluster. _x000D_
-We will go through the implementation of a generic controller, taking as example the torproxy._x000D_
-The audience will learn more about writing kubernetes controllers, know more about tor network, Go language patterns </t>
-  </si>
-  <si>
-    <t>Fulvio Denza</t>
-  </si>
-  <si>
-    <t>fulviodenza823@gmail.com</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>fc2a3a72-76e2-4a5d-b05b-cf02838714e5</t>
-  </si>
-  <si>
-    <t>Form inclusivi: l'importanza dei dettagli nascosti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I form sono spesso la porta d'ingresso ai servizi online. Come possiamo renderli più inclusivi per gli utenti?_x000D_
-Progettare e sviluppare un form inclusivo richiede una serie di considerazioni da fare nelle varie fasi del processo di realizzazione, che spesso vengono ignorate o date per scontate._x000D_
-Scopriamo insieme come ridefinire un form e renderlo più inclusivo.</t>
-  </si>
-  <si>
-    <t>Loredana Frontino</t>
-  </si>
-  <si>
-    <t>lory.frontino@gmail.com</t>
-  </si>
-  <si>
-    <t>71dba3f8-a0f9-4301-a3a7-d699aa1a182b</t>
-  </si>
-  <si>
     <t>Boost your LLM-based application with a RAG system</t>
   </si>
   <si>
@@ -613,6 +573,23 @@
   </si>
   <si>
     <t>23778c1e-25bf-477e-b1bd-a577b88a1205</t>
+  </si>
+  <si>
+    <t>Form inclusivi: l'importanza dei dettagli nascosti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I form sono spesso la porta d'ingresso ai servizi online. Come possiamo renderli più inclusivi per gli utenti?_x000D_
+Progettare e sviluppare un form inclusivo richiede una serie di considerazioni da fare nelle varie fasi del processo di realizzazione, che spesso vengono ignorate o date per scontate._x000D_
+Scopriamo insieme come ridefinire un form e renderlo più inclusivo.</t>
+  </si>
+  <si>
+    <t>Loredana Frontino</t>
+  </si>
+  <si>
+    <t>lory.frontino@gmail.com</t>
+  </si>
+  <si>
+    <t>71dba3f8-a0f9-4301-a3a7-d699aa1a182b</t>
   </si>
   <si>
     <t>Verso una logistica intelligente: AI e Apprendimento Federato per ottimizzare processi logistici</t>
@@ -633,6 +610,26 @@
   </si>
   <si>
     <t>cdc81ad6-0f52-4e99-87b3-a95ab9863b1a</t>
+  </si>
+  <si>
+    <t>Extending Kubernetes: Building torproxy for Anonymous Container Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torproxy is an open source Kubernetes controller written in Go to enable tor utilities in your k8s cluster. _x000D_
+We will go through the implementation of a generic controller, taking as example the torproxy._x000D_
+The audience will learn more about writing kubernetes controllers, know more about tor network, Go language patterns </t>
+  </si>
+  <si>
+    <t>Fulvio Denza</t>
+  </si>
+  <si>
+    <t>fulviodenza823@gmail.com</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>fc2a3a72-76e2-4a5d-b05b-cf02838714e5</t>
   </si>
   <si>
     <t>How I ported Doom to the browser with WebAssembly</t>
@@ -723,7 +720,7 @@
     <t>8730d40b-3fb7-450d-ab71-08c9dd81a48a</t>
   </si>
   <si>
-    <t>Addestra il tuo LLM a pensare con GRPO—ora anche su piccole GPU!</t>
+    <t>Addestra il tuo LLM a pensare con GRPO — ora anche su piccole GPU!</t>
   </si>
   <si>
     <t xml:space="preserve">DeepSeek R1, uno dei large language model più discussi del momento, ha introdotto GRPO, un nuovo algoritmo di reinforcement learning che permetterebbe di addestrare modelli che "ragionano". Ma è davvero così?_x000D_
@@ -1853,7 +1850,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>854505</v>
+        <v>850062</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>21</v>
@@ -1891,161 +1888,167 @@
       <c r="M2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>30</v>
+      <c r="N2" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O2" s="5">
+        <v>45720.697022025459</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>45759.416666666664</v>
+      </c>
+      <c r="R2" s="0">
+        <v>45</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>850062</v>
+        <v>860330</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N3" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O3" s="5">
-        <v>45720.697022025459</v>
+        <v>45715.323366666664</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="5">
         <v>45759.416666666664</v>
       </c>
       <c r="R3" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>860330</v>
+        <v>862668</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N4" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O4" s="5">
-        <v>45715.323366666664</v>
+        <v>45730.456549537033</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="5">
         <v>45759.416666666664</v>
       </c>
       <c r="R4" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>862668</v>
+        <v>862926</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>27</v>
@@ -2054,19 +2057,19 @@
         <v>28</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N5" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O5" s="5">
-        <v>45730.456549537033</v>
+        <v>45714.860351701383</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>58</v>
@@ -2075,7 +2078,7 @@
         <v>45759.416666666664</v>
       </c>
       <c r="R5" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U5" s="0" t="s">
         <v>59</v>
@@ -2083,7 +2086,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>862926</v>
+        <v>797393</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>60</v>
@@ -2101,10 +2104,10 @@
         <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>27</v>
@@ -2113,57 +2116,57 @@
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N6" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O6" s="5">
-        <v>45714.860351701383</v>
+        <v>45714.416337303242</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="5">
-        <v>45759.416666666664</v>
+        <v>45759.451388888891</v>
       </c>
       <c r="R6" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>797393</v>
+        <v>821974</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>27</v>
@@ -2172,57 +2175,57 @@
         <v>28</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N7" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O7" s="5">
-        <v>45714.416337303242</v>
+        <v>45714.488690428239</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="5">
         <v>45759.451388888891</v>
       </c>
       <c r="R7" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>821974</v>
+        <v>838947</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>27</v>
@@ -2231,175 +2234,175 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N8" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O8" s="5">
-        <v>45714.488690428239</v>
+        <v>45714.437480636574</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="5">
         <v>45759.451388888891</v>
       </c>
       <c r="R8" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>838947</v>
+        <v>862301</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>80</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N9" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O9" s="5">
-        <v>45714.437480636574</v>
+        <v>45714.446214780088</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="5">
         <v>45759.451388888891</v>
       </c>
       <c r="R9" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>862301</v>
+        <v>796625</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N10" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O10" s="5">
-        <v>45714.446214780088</v>
+        <v>45714.444721261571</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="5">
-        <v>45759.451388888891</v>
+        <v>45759.486111111109</v>
       </c>
       <c r="R10" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>796625</v>
+        <v>854505</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="F11" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>27</v>
@@ -2408,31 +2411,31 @@
         <v>28</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O11" s="5">
-        <v>45714.444721261571</v>
+        <v>42</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="5">
         <v>45759.486111111109</v>
       </c>
       <c r="R11" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -2440,25 +2443,25 @@
         <v>860892</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="F12" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>27</v>
@@ -2467,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N12" s="5">
         <v>45714.409613923606</v>
@@ -2482,16 +2485,16 @@
         <v>45714.545749652774</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="5">
         <v>45759.486111111109</v>
       </c>
       <c r="R12" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -2499,40 +2502,40 @@
         <v>883240</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>30</v>
@@ -2541,16 +2544,16 @@
         <v>30</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="5">
         <v>45759.486111111109</v>
       </c>
       <c r="R13" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -2558,25 +2561,25 @@
         <v>824924</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>27</v>
@@ -2585,13 +2588,13 @@
         <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N14" s="5">
         <v>45714.409613923606</v>
@@ -2600,16 +2603,16 @@
         <v>45715.407090312496</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="5">
         <v>45759.506944444445</v>
       </c>
       <c r="R14" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -2617,25 +2620,25 @@
         <v>859518</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="F15" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>27</v>
@@ -2644,13 +2647,13 @@
         <v>28</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N15" s="5">
         <v>45714.409613923606</v>
@@ -2659,16 +2662,16 @@
         <v>45714.440862071759</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="5">
         <v>45759.506944444445</v>
       </c>
       <c r="R15" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -2676,40 +2679,40 @@
         <v>859594</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N16" s="5">
         <v>45714.409613923606</v>
@@ -2718,16 +2721,16 @@
         <v>45714.5267258449</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="5">
         <v>45759.506944444445</v>
       </c>
       <c r="R16" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
@@ -2735,40 +2738,40 @@
         <v>884731</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="F17" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>30</v>
@@ -2777,134 +2780,134 @@
         <v>30</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="5">
         <v>45759.506944444445</v>
       </c>
       <c r="R17" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>822693</v>
+        <v>846889</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>130</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N18" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O18" s="5">
-        <v>45715.34785543981</v>
+        <v>45714.435481863424</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="5">
         <v>45759.583333333328</v>
       </c>
       <c r="R18" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>846889</v>
+        <v>853115</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N19" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O19" s="5">
-        <v>45714.435481863424</v>
+        <v>45714.418413229163</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="5">
         <v>45759.583333333328</v>
       </c>
       <c r="R19" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
@@ -2912,25 +2915,25 @@
         <v>857773</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>27</v>
@@ -2945,7 +2948,7 @@
         <v>30</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N20" s="5">
         <v>45714.409613923606</v>
@@ -2954,16 +2957,16 @@
         <v>45714.595782326389</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="5">
         <v>45759.583333333328</v>
       </c>
       <c r="R20" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21">
@@ -2971,40 +2974,40 @@
         <v>857916</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="F21" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>29</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N21" s="5">
         <v>45714.409613923606</v>
@@ -3013,101 +3016,101 @@
         <v>45714.4301599537</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="5">
         <v>45759.583333333328</v>
       </c>
       <c r="R21" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>837938</v>
+        <v>822693</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="G22" s="0" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L22" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="N22" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O22" s="5">
-        <v>45714.433191932869</v>
+        <v>45715.34785543981</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="5">
         <v>45759.618055555555</v>
       </c>
       <c r="R22" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>843163</v>
+        <v>837938</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>27</v>
@@ -3116,28 +3119,28 @@
         <v>28</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="N23" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O23" s="5">
-        <v>45714.551208599536</v>
+        <v>45714.433191932869</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="5">
         <v>45759.618055555555</v>
       </c>
       <c r="R23" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U23" s="0" t="s">
         <v>159</v>
@@ -3145,7 +3148,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>853115</v>
+        <v>843163</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>160</v>
@@ -3163,75 +3166,75 @@
         <v>162</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N24" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O24" s="5">
-        <v>45714.418413229163</v>
+        <v>45714.551208599536</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="5">
         <v>45759.618055555555</v>
       </c>
       <c r="R24" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>863474</v>
+        <v>849512</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>29</v>
@@ -3240,25 +3243,25 @@
         <v>30</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="N25" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O25" s="5">
-        <v>45714.481459178241</v>
+        <v>45714.431661076385</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="5">
         <v>45759.618055555555</v>
       </c>
       <c r="R25" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
@@ -3266,25 +3269,25 @@
         <v>813458</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>27</v>
@@ -3293,13 +3296,13 @@
         <v>28</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N26" s="5">
         <v>45714.409613923606</v>
@@ -3308,7 +3311,7 @@
         <v>45714.436776504626</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="5">
         <v>45759.652777777774</v>
@@ -3317,89 +3320,89 @@
         <v>25</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>849512</v>
+        <v>863339</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>180</v>
-      </c>
       <c r="F27" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N27" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O27" s="5">
-        <v>45714.431661076385</v>
+        <v>45716.368220023149</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="5">
         <v>45759.652777777774</v>
       </c>
       <c r="R27" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>863339</v>
+        <v>863474</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>185</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>26</v>
@@ -3408,34 +3411,34 @@
         <v>27</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="N28" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O28" s="5">
-        <v>45716.368220023149</v>
+        <v>45714.481459178241</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="5">
         <v>45759.652777777774</v>
       </c>
       <c r="R28" s="0">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
@@ -3443,31 +3446,31 @@
         <v>863806</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>29</v>
@@ -3476,7 +3479,7 @@
         <v>30</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N29" s="5">
         <v>45714.409613923606</v>
@@ -3485,16 +3488,16 @@
         <v>45714.463723611108</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="5">
         <v>45759.652777777774</v>
       </c>
       <c r="R29" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
@@ -3502,25 +3505,25 @@
         <v>862602</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>196</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>27</v>
@@ -3529,13 +3532,13 @@
         <v>28</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N30" s="5">
         <v>45714.409613923606</v>
@@ -3544,7 +3547,7 @@
         <v>45714.425511076384</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="5">
         <v>45759.670138888891</v>
@@ -3553,7 +3556,7 @@
         <v>25</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -3561,25 +3564,25 @@
         <v>885792</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>27</v>
@@ -3588,13 +3591,13 @@
         <v>28</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>30</v>
@@ -3603,7 +3606,7 @@
         <v>30</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="5">
         <v>45759.670138888891</v>
@@ -3612,7 +3615,7 @@
         <v>25</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
@@ -3620,25 +3623,25 @@
         <v>857452</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>206</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>27</v>
@@ -3650,10 +3653,10 @@
         <v>29</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N32" s="5">
         <v>45695.507444594907</v>
@@ -3662,16 +3665,16 @@
         <v>45695.538855474537</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q32" s="5">
         <v>45759.708333333328</v>
       </c>
       <c r="R32" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
@@ -3679,40 +3682,40 @@
         <v>861129</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>30</v>
@@ -3721,16 +3724,16 @@
         <v>30</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="5">
         <v>45759.708333333328</v>
       </c>
       <c r="R33" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
@@ -3738,25 +3741,25 @@
         <v>864118</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>27</v>
@@ -3771,7 +3774,7 @@
         <v>30</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N34" s="5">
         <v>45714.409613923606</v>
@@ -3780,16 +3783,16 @@
         <v>45714.806715277773</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q34" s="5">
         <v>45759.708333333328</v>
       </c>
       <c r="R34" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35">
@@ -3797,25 +3800,25 @@
         <v>893277</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>27</v>
@@ -3830,7 +3833,7 @@
         <v>30</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>30</v>
@@ -3839,16 +3842,16 @@
         <v>30</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="5">
         <v>45759.708333333328</v>
       </c>
       <c r="R35" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36">
@@ -3856,25 +3859,25 @@
         <v>826068</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>227</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>27</v>
@@ -3883,13 +3886,13 @@
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N36" s="5">
         <v>45714.409613923606</v>
@@ -3898,16 +3901,16 @@
         <v>45714.422330590278</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="Q36" s="5">
         <v>45759.743055555555</v>
       </c>
       <c r="R36" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3925,1173 +3928,1173 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="H7" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="I9" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="M9" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="M10" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="M11" s="0" t="s">
         <v>313</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="M12" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="M13" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="L14" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="M14" s="0" t="s">
         <v>336</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>342</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="M16" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="M17" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>360</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="G19" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="J19" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="K19" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M19" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="J20" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="M20" s="0" t="s">
         <v>378</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="K21" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="M21" s="0" t="s">
         <v>387</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="I22" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="K22" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="M22" s="0" t="s">
         <v>395</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="I23" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="M23" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="M24" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="K25" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="M25" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="F26" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="G26" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="L26" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="M26" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="G27" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="H28" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="I28" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="K28" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="L28" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="M28" s="0" t="s">
         <v>442</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="I29" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="K29" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="L29" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="M29" s="0" t="s">
         <v>452</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="F30" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="G30" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="J30" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="M30" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="F31" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="G31" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="H31" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" s="0" t="s">
         <v>467</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="F32" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="M32" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="F33" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="M33" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="F34" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="G34" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="K34" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="M34" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="M35" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="F36" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="I36" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="J36" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="K36" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="L36" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="L36" s="0" t="s">
+      <c r="M36" s="0" t="s">
         <v>504</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="F37" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="M37" s="0" t="s">
         <v>510</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="F38" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="G38" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="M38" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -1901,7 +1901,7 @@
         <v>45759.416666666664</v>
       </c>
       <c r="R2" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U2" s="0" t="s">
         <v>33</v>
@@ -1960,7 +1960,7 @@
         <v>45759.416666666664</v>
       </c>
       <c r="R3" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U3" s="0" t="s">
         <v>44</v>
@@ -2019,7 +2019,7 @@
         <v>45759.416666666664</v>
       </c>
       <c r="R4" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
         <v>52</v>
@@ -2078,7 +2078,7 @@
         <v>45759.416666666664</v>
       </c>
       <c r="R5" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
         <v>59</v>
@@ -2137,7 +2137,7 @@
         <v>45759.451388888891</v>
       </c>
       <c r="R6" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U6" s="0" t="s">
         <v>64</v>
@@ -2196,7 +2196,7 @@
         <v>45759.451388888891</v>
       </c>
       <c r="R7" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U7" s="0" t="s">
         <v>69</v>
@@ -2255,7 +2255,7 @@
         <v>45759.451388888891</v>
       </c>
       <c r="R8" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U8" s="0" t="s">
         <v>75</v>
@@ -2314,7 +2314,7 @@
         <v>45759.451388888891</v>
       </c>
       <c r="R9" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U9" s="0" t="s">
         <v>82</v>
@@ -2373,7 +2373,7 @@
         <v>45759.486111111109</v>
       </c>
       <c r="R10" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U10" s="0" t="s">
         <v>88</v>
@@ -2432,7 +2432,7 @@
         <v>45759.486111111109</v>
       </c>
       <c r="R11" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U11" s="0" t="s">
         <v>93</v>
@@ -2491,7 +2491,7 @@
         <v>45759.486111111109</v>
       </c>
       <c r="R12" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U12" s="0" t="s">
         <v>99</v>
@@ -2550,7 +2550,7 @@
         <v>45759.486111111109</v>
       </c>
       <c r="R13" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U13" s="0" t="s">
         <v>104</v>
@@ -2609,7 +2609,7 @@
         <v>45759.506944444445</v>
       </c>
       <c r="R14" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U14" s="0" t="s">
         <v>109</v>
@@ -2668,7 +2668,7 @@
         <v>45759.506944444445</v>
       </c>
       <c r="R15" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U15" s="0" t="s">
         <v>114</v>
@@ -2727,7 +2727,7 @@
         <v>45759.506944444445</v>
       </c>
       <c r="R16" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>120</v>
@@ -2786,7 +2786,7 @@
         <v>45759.506944444445</v>
       </c>
       <c r="R17" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U17" s="0" t="s">
         <v>125</v>
@@ -2845,7 +2845,7 @@
         <v>45759.583333333328</v>
       </c>
       <c r="R18" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U18" s="0" t="s">
         <v>130</v>
@@ -2904,7 +2904,7 @@
         <v>45759.583333333328</v>
       </c>
       <c r="R19" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>136</v>
@@ -2963,7 +2963,7 @@
         <v>45759.583333333328</v>
       </c>
       <c r="R20" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>141</v>
@@ -3022,7 +3022,7 @@
         <v>45759.583333333328</v>
       </c>
       <c r="R21" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U21" s="0" t="s">
         <v>147</v>
@@ -3081,7 +3081,7 @@
         <v>45759.618055555555</v>
       </c>
       <c r="R22" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U22" s="0" t="s">
         <v>153</v>
@@ -3140,7 +3140,7 @@
         <v>45759.618055555555</v>
       </c>
       <c r="R23" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U23" s="0" t="s">
         <v>159</v>
@@ -3199,7 +3199,7 @@
         <v>45759.618055555555</v>
       </c>
       <c r="R24" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U24" s="0" t="s">
         <v>164</v>
@@ -3258,7 +3258,7 @@
         <v>45759.618055555555</v>
       </c>
       <c r="R25" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U25" s="0" t="s">
         <v>169</v>
@@ -3435,7 +3435,7 @@
         <v>45759.652777777774</v>
       </c>
       <c r="R28" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U28" s="0" t="s">
         <v>185</v>
@@ -3494,7 +3494,7 @@
         <v>45759.652777777774</v>
       </c>
       <c r="R29" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>191</v>
@@ -3671,7 +3671,7 @@
         <v>45759.708333333328</v>
       </c>
       <c r="R32" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U32" s="0" t="s">
         <v>207</v>
@@ -3730,7 +3730,7 @@
         <v>45759.708333333328</v>
       </c>
       <c r="R33" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U33" s="0" t="s">
         <v>212</v>
@@ -3789,7 +3789,7 @@
         <v>45759.708333333328</v>
       </c>
       <c r="R34" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U34" s="0" t="s">
         <v>217</v>
@@ -3848,7 +3848,7 @@
         <v>45759.708333333328</v>
       </c>
       <c r="R35" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U35" s="0" t="s">
         <v>222</v>
@@ -3907,7 +3907,7 @@
         <v>45759.743055555555</v>
       </c>
       <c r="R36" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="U36" s="0" t="s">
         <v>227</v>

--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>Session Id</t>
   </si>
@@ -76,6 +76,42 @@
   </si>
   <si>
     <t>Speaker Ids</t>
+  </si>
+  <si>
+    <t>Service Design e accessibilità per i siti Web</t>
+  </si>
+  <si>
+    <t>In questo intervento, rivolto a programmatori, verranno introdotti i concetti di Service Design e di accessibilità applicati ai siti Web. Per farlo parleremo di tubi dell'acqua (calda e fredda) e rubinetti, pentole per scolare la pasta e di bias (come il survivorship bias) per capire, con esempi "lontani" dall'ambito informatico, in quali tranelli potrebbe cadere un programmatore se ragiona da "tecnologo". Dopo un'introduzione dedicata al Service Design vedremo com'è nato l'HTML e perché era (ora non più!) tollerabile scrivere qualsiasi cosa (anche sbagliata) dentro un sito Web. Cercheremo di capire come mai il legislatore da più di 20 anni (2004) abbia imposto l'accessibilità come requisito per i siti Web della pubblica amministrazione e come questa non sia più una feature tra le tante desiderate ma diventa norma di legge, anche per tutti i siti commerciali, a partire da giugno 2025. Verrà fatto cenno ad alcuni requisiti delle norme tecniche (WCAG) e ad alcuni semplici esempi di pagine non accessibili. La conoscenza, anche di base, di HTML è gradita ma non è strettamente necessaria per poter comprendere i concetti esposti.</t>
+  </si>
+  <si>
+    <t>Ivan Venuti</t>
+  </si>
+  <si>
+    <t>ivanvenuti@gmail.com</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Full (40min)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Introductory</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>493590fc-c38a-4f7f-b76f-e81d7cf6207a</t>
   </si>
   <si>
     <t>Breaking Free from the Need for Male Approval in Professional Growth</t>
@@ -102,19 +138,7 @@
     <t>Soft Skills</t>
   </si>
   <si>
-    <t>Full (40min)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Introductory</t>
-  </si>
-  <si>
     <t>English</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>united kingdom</t>
@@ -149,9 +173,6 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>Italian</t>
-  </si>
-  <si>
     <t>Yes, and I will be applying with Google's speaker program</t>
   </si>
   <si>
@@ -178,9 +199,6 @@
   </si>
   <si>
     <t>Cloud</t>
-  </si>
-  <si>
-    <t>Italia</t>
   </si>
   <si>
     <t>Sala Gentili</t>
@@ -284,9 +302,6 @@
     <t>Valentina Giuffre' Coco, Paolo Botti</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
     <t>26ccbcbd-1d78-471c-b98e-fa7854526c2a, bbab3352-b233-4074-9e07-f8df51b61644</t>
   </si>
   <si>
@@ -454,9 +469,6 @@
   </si>
   <si>
     <t>danielemario@areddu.it</t>
-  </si>
-  <si>
-    <t>Advanced</t>
   </si>
   <si>
     <t>919f1380-f9b7-40ce-97a9-545be75734ae</t>
@@ -541,21 +553,6 @@
     <t>b3788766-6842-4297-9dc2-f4f09ebe14d6</t>
   </si>
   <si>
-    <t>Service Design e accessibilità per i siti Web</t>
-  </si>
-  <si>
-    <t>In questo intervento, rivolto a programmatori, verranno introdotti i concetti di Service Design e di accessibilità applicati ai siti Web. Per farlo parleremo di tubi dell'acqua (calda e fredda) e rubinetti, pentole per scolare la pasta e di bias (come il survivorship bias) per capire, con esempi "lontani" dall'ambito informatico, in quali tranelli potrebbe cadere un programmatore se ragiona da "tecnologo". Dopo un'introduzione dedicata al Service Design vedremo com'è nato l'HTML e perché era (ora non più!) tollerabile scrivere qualsiasi cosa (anche sbagliata) dentro un sito Web. Cercheremo di capire come mai il legislatore da più di 20 anni (2004) abbia imposto l'accessibilità come requisito per i siti Web della pubblica amministrazione e come questa non sia più una feature tra le tante desiderate ma diventa norma di legge, anche per tutti i siti commerciali, a partire da giugno 2025. Verrà fatto cenno ad alcuni requisiti delle norme tecniche (WCAG) e ad alcuni semplici esempi di pagine non accessibili. La conoscenza, anche di base, di HTML è gradita ma non è strettamente necessaria per poter comprendere i concetti esposti.</t>
-  </si>
-  <si>
-    <t>Ivan Venuti</t>
-  </si>
-  <si>
-    <t>ivanvenuti@gmail.com</t>
-  </si>
-  <si>
-    <t>493590fc-c38a-4f7f-b76f-e81d7cf6207a</t>
-  </si>
-  <si>
     <t>Boost your LLM-based application with a RAG system</t>
   </si>
   <si>
@@ -573,6 +570,29 @@
   </si>
   <si>
     <t>23778c1e-25bf-477e-b1bd-a577b88a1205</t>
+  </si>
+  <si>
+    <t>Explainable ML 101: come rendere chiaro il tuo modello Black Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rapida crescita del machine learning ha reso possibile sviluppare applicazioni con modelli complessi capaci di risultati straordinari._x000D_
+_x000D_
+Tuttavia, sebbene i modelli black box (scatola nera) abbiano conosciuto una crescita esplosiva, è molto difficile comprenderne le relazioni interne, rendendoli inadatti alla comprensione dei dati o all’utilizzo in contesti critici (ad esempio, in ambito medico)._x000D_
+_x000D_
+I modelli spiegabili, al contrario, sono molto più comprensibili, sia per la loro semplicità che per l’utilizzo di metriche interne facilmente interpretabili, ma in genere risultano molto meno potenti rispetto ai modelli black box._x000D_
+_x000D_
+Non sarebbe fantastico poter “collegare” un modello spiegabile a un modello black box per comprendere i risultati e le motivazioni dietro le scelte fatte dal modello?_x000D_
+_x000D_
+In questa sessione esploreremo i fondamenti dei modelli spiegabili e come aggiungere una "testa spiegabile" al tuo modello black box.</t>
+  </si>
+  <si>
+    <t>Leonardo Dipilato</t>
+  </si>
+  <si>
+    <t>leonardipilato@gmail.com</t>
+  </si>
+  <si>
+    <t>e582e797-64a8-46b9-94fe-23bdcca5f525</t>
   </si>
   <si>
     <t>Form inclusivi: l'importanza dei dettagli nascosti</t>
@@ -770,6 +790,19 @@
   </si>
   <si>
     <t>04f80ad2-8117-4df5-9695-f19d0ebd9c25</t>
+  </si>
+  <si>
+    <t>Redefine Possible: donne in STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redefine Possible è il tema dell'IWD 2025, ma cosa significa? Come è percepito il "possibile" da figure femminili che lavorano in ambito STEM?_x000D_
+In questa sessione, 3 speaker verranno intervistate, ognuna rappresentante un diverso settore STEM, per condividere la propria esperienza e discutere diversità e inclusione sul posto di lavoro.</t>
+  </si>
+  <si>
+    <t>Loredana Frontino, Anna Bernasconi, Carmen Panepinto Zayati, Silvia Raggi</t>
+  </si>
+  <si>
+    <t>71dba3f8-a0f9-4301-a3a7-d699aa1a182b, 527b2a7b-fd99-4ba2-a076-5703226fbf03, 04f80ad2-8117-4df5-9695-f19d0ebd9c25, 7869365c-0ad9-41ad-99cc-a87ad0f5ccf6</t>
   </si>
   <si>
     <t>AI’s Hidden Cost: The Environmental Impact of Machine Learning</t>
@@ -1612,6 +1645,29 @@
   </si>
   <si>
     <t>https://sessionize.com/image/a673-400o400o1-B9m7Lyvuur4WGBGx9ffBfh.jpg</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Dipilato</t>
+  </si>
+  <si>
+    <t>Community Lead @ GDG Pisa; PhD Student and Teaching Assistant @ TU Graz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational Fluid Dynamics engineer, Data Analyst, and BIG nerd._x000D_
+_x000D_
+Leonardo's Pokédex entry says: if he's not solving two-phase flows through porous media, wondering whether there's any bias in a dataset, or doing random Leetcode/Project Euler questions, you'll find him organizing community tech events or attending them. Approach with some food and you'll be best friends!</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/leonardo-dipilato-512a42167/</t>
+  </si>
+  <si>
+    <t>https://cubitlab.com</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/638c-400o400o1-ETYBtmZGzJmGwRg2HHPT5y.jpg</t>
   </si>
   <si>
     <t>Fabio</t>
@@ -1777,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1906,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>850062</v>
+        <v>843163</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>21</v>
@@ -1892,42 +1948,36 @@
         <v>45714.409613923606</v>
       </c>
       <c r="O2" s="5">
-        <v>45720.697022025459</v>
+        <v>45714.551208599536</v>
       </c>
       <c r="P2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>45759.416666666664</v>
-      </c>
-      <c r="R2" s="0">
-        <v>50</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>860330</v>
+        <v>850062</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>26</v>
@@ -1936,25 +1986,25 @@
         <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="N3" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O3" s="5">
-        <v>45715.323366666664</v>
+        <v>45720.697022025459</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="5">
         <v>45759.416666666664</v>
@@ -1963,30 +2013,30 @@
         <v>50</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>862668</v>
+        <v>860330</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
@@ -1995,25 +2045,25 @@
         <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O4" s="5">
-        <v>45730.456549537033</v>
+        <v>45715.323366666664</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="5">
         <v>45759.416666666664</v>
@@ -2022,30 +2072,30 @@
         <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>862926</v>
+        <v>862668</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>26</v>
@@ -2060,19 +2110,19 @@
         <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N5" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O5" s="5">
-        <v>45714.860351701383</v>
+        <v>45730.456549537033</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="5">
         <v>45759.416666666664</v>
@@ -2081,30 +2131,30 @@
         <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>797393</v>
+        <v>862926</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>26</v>
@@ -2116,54 +2166,54 @@
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O6" s="5">
-        <v>45714.416337303242</v>
+        <v>45714.860351701383</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="5">
-        <v>45759.451388888891</v>
+        <v>45759.416666666664</v>
       </c>
       <c r="R6" s="0">
         <v>50</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>821974</v>
+        <v>797393</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -2175,22 +2225,22 @@
         <v>28</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O7" s="5">
-        <v>45714.488690428239</v>
+        <v>45714.416337303242</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="5">
         <v>45759.451388888891</v>
@@ -2199,30 +2249,30 @@
         <v>50</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>838947</v>
+        <v>821974</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>26</v>
@@ -2234,22 +2284,22 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O8" s="5">
-        <v>45714.437480636574</v>
+        <v>45714.488690428239</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="5">
         <v>45759.451388888891</v>
@@ -2263,7 +2313,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>862301</v>
+        <v>838947</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>76</v>
@@ -2278,10 +2328,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>26</v>
@@ -2290,25 +2340,25 @@
         <v>27</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N9" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O9" s="5">
-        <v>45714.446214780088</v>
+        <v>45714.437480636574</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="5">
         <v>45759.451388888891</v>
@@ -2317,92 +2367,92 @@
         <v>50</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>796625</v>
+        <v>862301</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>85</v>
-      </c>
       <c r="G10" s="0" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N10" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O10" s="5">
-        <v>45714.444721261571</v>
+        <v>45714.446214780088</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="5">
-        <v>45759.486111111109</v>
+        <v>45759.451388888891</v>
       </c>
       <c r="R10" s="0">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>854505</v>
+        <v>796625</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>27</v>
@@ -2417,16 +2467,16 @@
         <v>30</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="N11" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O11" s="5">
+        <v>45714.444721261571</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="5">
         <v>45759.486111111109</v>
@@ -2440,7 +2490,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>860892</v>
+        <v>854505</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>94</v>
@@ -2458,10 +2508,10 @@
         <v>96</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>27</v>
@@ -2470,22 +2520,22 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O12" s="5">
-        <v>45714.545749652774</v>
+        <v>49</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="5">
         <v>45759.486111111109</v>
@@ -2494,57 +2544,57 @@
         <v>30</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>883240</v>
+        <v>860892</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="N13" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O13" s="5">
+        <v>45714.545749652774</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="5">
         <v>45759.486111111109</v>
@@ -2558,7 +2608,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>824924</v>
+        <v>883240</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>105</v>
@@ -2576,16 +2626,16 @@
         <v>107</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>29</v>
@@ -2594,19 +2644,19 @@
         <v>30</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O14" s="5">
-        <v>45715.407090312496</v>
+        <v>31</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="5">
-        <v>45759.506944444445</v>
+        <v>45759.486111111109</v>
       </c>
       <c r="R14" s="0">
         <v>30</v>
@@ -2617,7 +2667,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>859518</v>
+        <v>824924</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>110</v>
@@ -2635,10 +2685,10 @@
         <v>112</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>27</v>
@@ -2647,22 +2697,22 @@
         <v>28</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N15" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O15" s="5">
-        <v>45714.440862071759</v>
+        <v>45715.407090312496</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="5">
         <v>45759.506944444445</v>
@@ -2676,7 +2726,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>859594</v>
+        <v>859518</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>115</v>
@@ -2691,19 +2741,19 @@
         <v>118</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>29</v>
@@ -2712,16 +2762,16 @@
         <v>30</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N16" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O16" s="5">
-        <v>45714.5267258449</v>
+        <v>45714.440862071759</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="5">
         <v>45759.506944444445</v>
@@ -2730,57 +2780,57 @@
         <v>30</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>884731</v>
+        <v>859594</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="N17" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O17" s="5">
+        <v>45714.5267258449</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="5">
         <v>45759.506944444445</v>
@@ -2794,7 +2844,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>846889</v>
+        <v>884731</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>126</v>
@@ -2812,16 +2862,16 @@
         <v>128</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>29</v>
@@ -2830,22 +2880,22 @@
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O18" s="5">
-        <v>45714.435481863424</v>
+        <v>49</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="5">
-        <v>45759.583333333328</v>
+        <v>45759.506944444445</v>
       </c>
       <c r="R18" s="0">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U18" s="0" t="s">
         <v>130</v>
@@ -2853,7 +2903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>853115</v>
+        <v>846889</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>131</v>
@@ -2871,7 +2921,7 @@
         <v>133</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>26</v>
@@ -2880,25 +2930,25 @@
         <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N19" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O19" s="5">
-        <v>45714.418413229163</v>
+        <v>45714.435481863424</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="5">
         <v>45759.583333333328</v>
@@ -2907,30 +2957,30 @@
         <v>50</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>857773</v>
+        <v>853115</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="F20" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
@@ -2939,7 +2989,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>29</v>
@@ -2948,16 +2998,16 @@
         <v>30</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N20" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O20" s="5">
-        <v>45714.595782326389</v>
+        <v>45714.418413229163</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="5">
         <v>45759.583333333328</v>
@@ -2966,30 +3016,30 @@
         <v>50</v>
       </c>
       <c r="U20" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>857916</v>
+        <v>857773</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="F21" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>26</v>
@@ -2998,25 +3048,25 @@
         <v>27</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="N21" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O21" s="5">
-        <v>45714.4301599537</v>
+        <v>45714.595782326389</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="Q21" s="5">
         <v>45759.583333333328</v>
@@ -3025,30 +3075,30 @@
         <v>50</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>822693</v>
+        <v>857916</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="F22" s="0" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>26</v>
@@ -3057,57 +3107,57 @@
         <v>27</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N22" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O22" s="5">
-        <v>45715.34785543981</v>
+        <v>45714.4301599537</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="5">
-        <v>45759.618055555555</v>
+        <v>45759.583333333328</v>
       </c>
       <c r="R22" s="0">
         <v>50</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>837938</v>
+        <v>822693</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>157</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>156</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>26</v>
@@ -3116,7 +3166,7 @@
         <v>27</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>29</v>
@@ -3125,16 +3175,16 @@
         <v>30</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="N23" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O23" s="5">
-        <v>45714.433191932869</v>
+        <v>45715.34785543981</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="5">
         <v>45759.618055555555</v>
@@ -3143,30 +3193,30 @@
         <v>50</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>843163</v>
+        <v>837938</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>163</v>
-      </c>
       <c r="F24" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>26</v>
@@ -3178,22 +3228,22 @@
         <v>28</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="N24" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O24" s="5">
-        <v>45714.551208599536</v>
+        <v>45714.433191932869</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="5">
         <v>45759.618055555555</v>
@@ -3202,7 +3252,7 @@
         <v>50</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25">
@@ -3210,22 +3260,22 @@
         <v>849512</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>26</v>
@@ -3234,16 +3284,16 @@
         <v>27</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N25" s="5">
         <v>45714.409613923606</v>
@@ -3252,7 +3302,7 @@
         <v>45714.431661076385</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="5">
         <v>45759.618055555555</v>
@@ -3261,92 +3311,92 @@
         <v>50</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>813458</v>
+        <v>906812</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O26" s="5">
-        <v>45714.436776504626</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="Q26" s="5">
-        <v>45759.652777777774</v>
+        <v>45759.618055555555</v>
       </c>
       <c r="R26" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>863339</v>
+        <v>813458</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>178</v>
-      </c>
       <c r="F27" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>27</v>
@@ -3355,22 +3405,22 @@
         <v>28</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N27" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O27" s="5">
-        <v>45716.368220023149</v>
+        <v>45714.436776504626</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="5">
         <v>45759.652777777774</v>
@@ -3379,39 +3429,39 @@
         <v>25</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>863474</v>
+        <v>863339</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="0" t="s">
-        <v>183</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>29</v>
@@ -3420,48 +3470,48 @@
         <v>30</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="N28" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O28" s="5">
-        <v>45714.481459178241</v>
+        <v>45716.368220023149</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="5">
         <v>45759.652777777774</v>
       </c>
       <c r="R28" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>863806</v>
+        <v>863474</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>189</v>
-      </c>
       <c r="F29" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>26</v>
@@ -3470,25 +3520,25 @@
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N29" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O29" s="5">
-        <v>45714.463723611108</v>
+        <v>45714.481459178241</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q29" s="5">
         <v>45759.652777777774</v>
@@ -3497,92 +3547,92 @@
         <v>50</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>862602</v>
+        <v>863806</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="N30" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O30" s="5">
-        <v>45714.425511076384</v>
+        <v>45714.463723611108</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q30" s="5">
-        <v>45759.670138888891</v>
+        <v>45759.652777777774</v>
       </c>
       <c r="R30" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>885792</v>
+        <v>862602</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>200</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>27</v>
@@ -3591,22 +3641,22 @@
         <v>28</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="N31" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O31" s="5">
+        <v>45714.425511076384</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="5">
         <v>45759.670138888891</v>
@@ -3615,33 +3665,33 @@
         <v>25</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>857452</v>
+        <v>885792</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>27</v>
@@ -3653,51 +3703,51 @@
         <v>29</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="N32" s="5">
-        <v>45695.507444594907</v>
-      </c>
-      <c r="O32" s="5">
-        <v>45695.538855474537</v>
+        <v>49</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="5">
-        <v>45759.708333333328</v>
+        <v>45759.670138888891</v>
       </c>
       <c r="R32" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>861129</v>
+        <v>857452</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="E33" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="F33" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>26</v>
@@ -3706,25 +3756,25 @@
         <v>27</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="N33" s="5">
+        <v>45695.507444594907</v>
+      </c>
+      <c r="O33" s="5">
+        <v>45695.538855474537</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="Q33" s="5">
         <v>45759.708333333328</v>
@@ -3733,30 +3783,30 @@
         <v>50</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>864118</v>
+        <v>861129</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>26</v>
@@ -3765,25 +3815,25 @@
         <v>27</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>29</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O34" s="5">
-        <v>45714.806715277773</v>
+        <v>49</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="5">
         <v>45759.708333333328</v>
@@ -3792,33 +3842,33 @@
         <v>50</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>893277</v>
+        <v>864118</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>221</v>
-      </c>
       <c r="F35" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>27</v>
@@ -3827,22 +3877,22 @@
         <v>28</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="N35" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O35" s="5">
+        <v>45714.806715277773</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="Q35" s="5">
         <v>45759.708333333328</v>
@@ -3851,33 +3901,33 @@
         <v>50</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>826068</v>
+        <v>893277</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="F36" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>27</v>
@@ -3886,31 +3936,149 @@
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>45759.708333333328</v>
+      </c>
+      <c r="R36" s="0">
+        <v>25</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>906036</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="5">
+      <c r="L37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>45759.725694444445</v>
+      </c>
+      <c r="R37" s="0">
+        <v>25</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>826068</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="5">
         <v>45714.409613923606</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O38" s="5">
         <v>45714.422330590278</v>
       </c>
-      <c r="P36" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q36" s="5">
+      <c r="P38" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q38" s="5">
         <v>45759.743055555555</v>
       </c>
-      <c r="R36" s="0">
+      <c r="R38" s="0">
         <v>50</v>
       </c>
-      <c r="U36" s="0" t="s">
-        <v>227</v>
+      <c r="U38" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +4088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3928,1173 +4096,1202 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>493</v>
+        <v>501</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>502</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>499</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>509</v>
+        <v>514</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>518</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/speakers/data-advanced.xlsx
+++ b/src/assets/speakers/data-advanced.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
   <si>
     <t>Session Id</t>
   </si>
@@ -112,6 +112,38 @@
   </si>
   <si>
     <t>493590fc-c38a-4f7f-b76f-e81d7cf6207a</t>
+  </si>
+  <si>
+    <t>Explainable ML 101: come rendere chiaro il tuo modello Black Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La rapida crescita del machine learning ha reso possibile sviluppare applicazioni con modelli complessi capaci di risultati straordinari._x000D_
+_x000D_
+Tuttavia, sebbene i modelli black box (scatola nera) abbiano conosciuto una crescita esplosiva, è molto difficile comprenderne le relazioni interne, rendendoli inadatti alla comprensione dei dati o all’utilizzo in contesti critici (ad esempio, in ambito medico)._x000D_
+_x000D_
+I modelli spiegabili, al contrario, sono molto più comprensibili, sia per la loro semplicità che per l’utilizzo di metriche interne facilmente interpretabili, ma in genere risultano molto meno potenti rispetto ai modelli black box._x000D_
+_x000D_
+Non sarebbe fantastico poter “collegare” un modello spiegabile a un modello black box per comprendere i risultati e le motivazioni dietro le scelte fatte dal modello?_x000D_
+_x000D_
+In questa sessione esploreremo i fondamenti dei modelli spiegabili e come aggiungere una "testa spiegabile" al tuo modello black box.</t>
+  </si>
+  <si>
+    <t>Leonardo Dipilato</t>
+  </si>
+  <si>
+    <t>leonardipilato@gmail.com</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>e582e797-64a8-46b9-94fe-23bdcca5f525</t>
   </si>
   <si>
     <t>Breaking Free from the Need for Male Approval in Professional Growth</t>
@@ -167,16 +199,7 @@
     <t>francesco@acadevmy.it</t>
   </si>
   <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
     <t>Yes, and I will be applying with Google's speaker program</t>
-  </si>
-  <si>
-    <t>Italy</t>
   </si>
   <si>
     <t>Sala Pacinotti</t>
@@ -572,27 +595,21 @@
     <t>23778c1e-25bf-477e-b1bd-a577b88a1205</t>
   </si>
   <si>
-    <t>Explainable ML 101: come rendere chiaro il tuo modello Black Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La rapida crescita del machine learning ha reso possibile sviluppare applicazioni con modelli complessi capaci di risultati straordinari._x000D_
+    <t>K-nearest-neighbor query e come usarla su Firebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negli ultimi anni, le ricerche semantiche basate su intelligenza artificiale sono passate da teoria accademica a strumenti pronti all'uso._x000D_
 _x000D_
-Tuttavia, sebbene i modelli black box (scatola nera) abbiano conosciuto una crescita esplosiva, è molto difficile comprenderne le relazioni interne, rendendoli inadatti alla comprensione dei dati o all’utilizzo in contesti critici (ad esempio, in ambito medico)._x000D_
-_x000D_
-I modelli spiegabili, al contrario, sono molto più comprensibili, sia per la loro semplicità che per l’utilizzo di metriche interne facilmente interpretabili, ma in genere risultano molto meno potenti rispetto ai modelli black box._x000D_
-_x000D_
-Non sarebbe fantastico poter “collegare” un modello spiegabile a un modello black box per comprendere i risultati e le motivazioni dietro le scelte fatte dal modello?_x000D_
-_x000D_
-In questa sessione esploreremo i fondamenti dei modelli spiegabili e come aggiungere una "testa spiegabile" al tuo modello black box.</t>
-  </si>
-  <si>
-    <t>Leonardo Dipilato</t>
-  </si>
-  <si>
-    <t>leonardipilato@gmail.com</t>
-  </si>
-  <si>
-    <t>e582e797-64a8-46b9-94fe-23bdcca5f525</t>
+In questo talk esploreremo come integrare la ricerca vettoriale in progetti Firebase, partendo dai concetti fondamentali fino all'implementazione concreta. Vedremo come salvare gli embedding, configurare un indice, ed eseguire query basate sulla similarità.</t>
+  </si>
+  <si>
+    <t>Camillo Bucciarelli</t>
+  </si>
+  <si>
+    <t>bucciarelli.camillo92@gmail.com</t>
+  </si>
+  <si>
+    <t>c1f5a2da-9168-4e08-92a3-89cd792ca36a</t>
   </si>
   <si>
     <t>Form inclusivi: l'importanza dei dettagli nascosti</t>
@@ -1599,6 +1616,30 @@
   </si>
   <si>
     <t>https://sessionize.com/image/7284-400o400o1-sufvmJZi6ac6kZoaKGkPYJ.jpg</t>
+  </si>
+  <si>
+    <t>Camillo</t>
+  </si>
+  <si>
+    <t>Bucciarelli</t>
+  </si>
+  <si>
+    <t>Technical manager @ Sopra Steria</t>
+  </si>
+  <si>
+    <t>Passionate about technology work in the IT industry since 2015. From Android through the web to Flutter helps companies to get their target.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/camillo-bucciarelli/</t>
+  </si>
+  <si>
+    <t>https://camillobucciarelli.dev</t>
+  </si>
+  <si>
+    <t>https://www.camillobucciarelli.dev/</t>
+  </si>
+  <si>
+    <t>https://sessionize.com/image/4549-400o400o1-QDwpy3bbUWFrw7bwDM5uaw.jpg</t>
   </si>
   <si>
     <t>Alessio</t>
@@ -1833,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1959,7 +2000,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>850062</v>
+        <v>906812</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>33</v>
@@ -1986,10 +2027,10 @@
         <v>27</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>30</v>
@@ -1997,46 +2038,40 @@
       <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O3" s="5">
-        <v>45720.697022025459</v>
+      <c r="N3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>45759.416666666664</v>
-      </c>
-      <c r="R3" s="0">
-        <v>50</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>860330</v>
+        <v>850062</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
@@ -2045,25 +2080,25 @@
         <v>27</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="N4" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O4" s="5">
-        <v>45715.323366666664</v>
+        <v>45720.697022025459</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="5">
         <v>45759.416666666664</v>
@@ -2072,30 +2107,30 @@
         <v>50</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>862668</v>
+        <v>860330</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>26</v>
@@ -2104,25 +2139,25 @@
         <v>27</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N5" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O5" s="5">
-        <v>45730.456549537033</v>
+        <v>45715.323366666664</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="5">
         <v>45759.416666666664</v>
@@ -2131,30 +2166,30 @@
         <v>50</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>862926</v>
+        <v>862668</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>26</v>
@@ -2166,22 +2201,22 @@
         <v>28</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N6" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O6" s="5">
-        <v>45714.860351701383</v>
+        <v>45730.456549537033</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="5">
         <v>45759.416666666664</v>
@@ -2190,30 +2225,30 @@
         <v>50</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>797393</v>
+        <v>862926</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -2225,25 +2260,25 @@
         <v>28</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N7" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O7" s="5">
-        <v>45714.416337303242</v>
+        <v>45714.860351701383</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="5">
-        <v>45759.451388888891</v>
+        <v>45759.416666666664</v>
       </c>
       <c r="R7" s="0">
         <v>50</v>
@@ -2254,7 +2289,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>821974</v>
+        <v>797393</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>71</v>
@@ -2272,7 +2307,7 @@
         <v>73</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>26</v>
@@ -2284,22 +2319,22 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N8" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O8" s="5">
-        <v>45714.488690428239</v>
+        <v>45714.416337303242</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="5">
         <v>45759.451388888891</v>
@@ -2313,7 +2348,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>838947</v>
+        <v>821974</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>76</v>
@@ -2331,7 +2366,7 @@
         <v>78</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>26</v>
@@ -2343,22 +2378,22 @@
         <v>28</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N9" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O9" s="5">
-        <v>45714.437480636574</v>
+        <v>45714.488690428239</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="5">
         <v>45759.451388888891</v>
@@ -2367,30 +2402,30 @@
         <v>50</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>862301</v>
+        <v>838947</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="F10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>26</v>
@@ -2399,7 +2434,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>29</v>
@@ -2408,16 +2443,16 @@
         <v>30</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N10" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O10" s="5">
-        <v>45714.446214780088</v>
+        <v>45714.437480636574</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="5">
         <v>45759.451388888891</v>
@@ -2426,39 +2461,39 @@
         <v>50</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>796625</v>
+        <v>862301</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="G11" s="0" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>29</v>
@@ -2467,51 +2502,51 @@
         <v>30</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N11" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O11" s="5">
-        <v>45714.444721261571</v>
+        <v>45714.446214780088</v>
       </c>
       <c r="P11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>45759.451388888891</v>
+      </c>
+      <c r="R11" s="0">
         <v>50</v>
       </c>
-      <c r="Q11" s="5">
-        <v>45759.486111111109</v>
-      </c>
-      <c r="R11" s="0">
-        <v>30</v>
-      </c>
       <c r="U11" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>854505</v>
+        <v>796625</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>27</v>
@@ -2520,22 +2555,22 @@
         <v>28</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="N12" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45714.444721261571</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="5">
         <v>45759.486111111109</v>
@@ -2549,7 +2584,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>860892</v>
+        <v>854505</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>99</v>
@@ -2567,10 +2602,10 @@
         <v>101</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>27</v>
@@ -2579,22 +2614,22 @@
         <v>28</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="L13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O13" s="5">
-        <v>45714.545749652774</v>
+        <v>39</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="5">
         <v>45759.486111111109</v>
@@ -2603,57 +2638,57 @@
         <v>30</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>883240</v>
+        <v>860892</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="F14" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="N14" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O14" s="5">
+        <v>45714.545749652774</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="5">
         <v>45759.486111111109</v>
@@ -2667,7 +2702,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>824924</v>
+        <v>883240</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>110</v>
@@ -2685,37 +2720,37 @@
         <v>112</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O15" s="5">
-        <v>45715.407090312496</v>
+        <v>31</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="5">
-        <v>45759.506944444445</v>
+        <v>45759.486111111109</v>
       </c>
       <c r="R15" s="0">
         <v>30</v>
@@ -2726,7 +2761,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>859518</v>
+        <v>824924</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>115</v>
@@ -2744,10 +2779,10 @@
         <v>117</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>27</v>
@@ -2756,22 +2791,22 @@
         <v>28</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N16" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O16" s="5">
-        <v>45714.440862071759</v>
+        <v>45715.407090312496</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="5">
         <v>45759.506944444445</v>
@@ -2785,7 +2820,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>859594</v>
+        <v>859518</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>120</v>
@@ -2800,37 +2835,37 @@
         <v>123</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N17" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O17" s="5">
-        <v>45714.5267258449</v>
+        <v>45714.440862071759</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="5">
         <v>45759.506944444445</v>
@@ -2839,57 +2874,57 @@
         <v>30</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>884731</v>
+        <v>859594</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="G18" s="0" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="N18" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O18" s="5">
+        <v>45714.5267258449</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="5">
         <v>45759.506944444445</v>
@@ -2903,7 +2938,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>846889</v>
+        <v>884731</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>131</v>
@@ -2921,40 +2956,40 @@
         <v>133</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N19" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O19" s="5">
-        <v>45714.435481863424</v>
+        <v>39</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="5">
-        <v>45759.583333333328</v>
+        <v>45759.506944444445</v>
       </c>
       <c r="R19" s="0">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>135</v>
@@ -2962,7 +2997,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>853115</v>
+        <v>846889</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>136</v>
@@ -2980,7 +3015,7 @@
         <v>138</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>26</v>
@@ -2989,25 +3024,25 @@
         <v>27</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N20" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O20" s="5">
-        <v>45714.418413229163</v>
+        <v>45714.435481863424</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="5">
         <v>45759.583333333328</v>
@@ -3021,7 +3056,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>857773</v>
+        <v>853115</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>141</v>
@@ -3048,25 +3083,25 @@
         <v>27</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N21" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O21" s="5">
-        <v>45714.595782326389</v>
+        <v>45714.418413229163</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="5">
         <v>45759.583333333328</v>
@@ -3080,7 +3115,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>857916</v>
+        <v>857773</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>146</v>
@@ -3098,7 +3133,7 @@
         <v>148</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>26</v>
@@ -3107,25 +3142,25 @@
         <v>27</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="N22" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O22" s="5">
-        <v>45714.4301599537</v>
+        <v>45714.595782326389</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q22" s="5">
         <v>45759.583333333328</v>
@@ -3134,30 +3169,30 @@
         <v>50</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>822693</v>
+        <v>857916</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>26</v>
@@ -3166,57 +3201,57 @@
         <v>27</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="N23" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O23" s="5">
-        <v>45715.34785543981</v>
+        <v>45714.4301599537</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="5">
-        <v>45759.618055555555</v>
+        <v>45759.583333333328</v>
       </c>
       <c r="R23" s="0">
         <v>50</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>837938</v>
+        <v>822693</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>160</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>26</v>
@@ -3225,25 +3260,25 @@
         <v>27</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="N24" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O24" s="5">
-        <v>45714.433191932869</v>
+        <v>45715.34785543981</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="5">
         <v>45759.618055555555</v>
@@ -3252,30 +3287,30 @@
         <v>50</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>849512</v>
+        <v>837938</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="F25" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>26</v>
@@ -3284,25 +3319,25 @@
         <v>27</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="N25" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O25" s="5">
-        <v>45714.431661076385</v>
+        <v>45714.433191932869</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="5">
         <v>45759.618055555555</v>
@@ -3316,7 +3351,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>906812</v>
+        <v>849512</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>169</v>
@@ -3334,7 +3369,7 @@
         <v>171</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>26</v>
@@ -3343,25 +3378,25 @@
         <v>27</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="N26" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O26" s="5">
+        <v>45714.431661076385</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="Q26" s="5">
         <v>45759.618055555555</v>
@@ -3375,7 +3410,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>813458</v>
+        <v>907569</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>174</v>
@@ -3393,16 +3428,16 @@
         <v>176</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>29</v>
@@ -3411,22 +3446,22 @@
         <v>30</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N27" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O27" s="5">
-        <v>45714.436776504626</v>
+        <v>39</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="5">
-        <v>45759.652777777774</v>
+        <v>45759.618055555555</v>
       </c>
       <c r="R27" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U27" s="0" t="s">
         <v>178</v>
@@ -3434,7 +3469,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>863339</v>
+        <v>813458</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>179</v>
@@ -3452,10 +3487,10 @@
         <v>181</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>27</v>
@@ -3470,16 +3505,16 @@
         <v>30</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N28" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O28" s="5">
-        <v>45716.368220023149</v>
+        <v>45714.436776504626</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="5">
         <v>45759.652777777774</v>
@@ -3493,7 +3528,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>863474</v>
+        <v>863339</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>184</v>
@@ -3511,66 +3546,66 @@
         <v>186</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="N29" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O29" s="5">
-        <v>45714.481459178241</v>
+        <v>45716.368220023149</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="5">
         <v>45759.652777777774</v>
       </c>
       <c r="R29" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>863806</v>
+        <v>863474</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="E30" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="F30" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>26</v>
@@ -3579,25 +3614,25 @@
         <v>27</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N30" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O30" s="5">
-        <v>45714.463723611108</v>
+        <v>45714.481459178241</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="5">
         <v>45759.652777777774</v>
@@ -3606,63 +3641,63 @@
         <v>50</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>862602</v>
+        <v>863806</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>199</v>
-      </c>
       <c r="F31" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N31" s="5">
         <v>45714.409613923606</v>
       </c>
       <c r="O31" s="5">
-        <v>45714.425511076384</v>
+        <v>45714.463723611108</v>
       </c>
       <c r="P31" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>45759.652777777774</v>
+      </c>
+      <c r="R31" s="0">
         <v>50</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>45759.670138888891</v>
-      </c>
-      <c r="R31" s="0">
-        <v>25</v>
       </c>
       <c r="U31" s="0" t="s">
         <v>200</v>
@@ -3670,7 +3705,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>885792</v>
+        <v>862602</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>201</v>
@@ -3688,10 +3723,10 @@
         <v>203</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>27</v>
@@ -3706,16 +3741,16 @@
         <v>30</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="N32" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O32" s="5">
+        <v>45714.425511076384</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="5">
         <v>45759.670138888891</v>
@@ -3729,7 +3764,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>857452</v>
+        <v>885792</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>206</v>
@@ -3747,10 +3782,10 @@
         <v>208</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>27</v>
@@ -3759,54 +3794,54 @@
         <v>28</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="Q33" s="5">
+        <v>45759.670138888891</v>
+      </c>
+      <c r="R33" s="0">
+        <v>25</v>
+      </c>
+      <c r="U33" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="N33" s="5">
-        <v>45695.507444594907</v>
-      </c>
-      <c r="O33" s="5">
-        <v>45695.538855474537</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>45759.708333333328</v>
-      </c>
-      <c r="R33" s="0">
-        <v>50</v>
-      </c>
-      <c r="U33" s="0" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>861129</v>
+        <v>857452</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>215</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>26</v>
@@ -3815,25 +3850,25 @@
         <v>27</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>30</v>
+        <v>215</v>
+      </c>
+      <c r="N34" s="5">
+        <v>45695.507444594907</v>
+      </c>
+      <c r="O34" s="5">
+        <v>45695.538855474537</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="5">
         <v>45759.708333333328</v>
@@ -3847,7 +3882,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>864118</v>
+        <v>861129</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>217</v>
@@ -3865,7 +3900,7 @@
         <v>219</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>26</v>
@@ -3874,25 +3909,25 @@
         <v>27</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N35" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O35" s="5">
-        <v>45714.806715277773</v>
+        <v>39</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="5">
         <v>45759.708333333328</v>
@@ -3906,7 +3941,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>893277</v>
+        <v>864118</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>222</v>
@@ -3924,10 +3959,10 @@
         <v>224</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>27</v>
@@ -3936,28 +3971,28 @@
         <v>28</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="L36" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O36" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="N36" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O36" s="5">
+        <v>45714.806715277773</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="5">
         <v>45759.708333333328</v>
       </c>
       <c r="R36" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="U36" s="0" t="s">
         <v>226</v>
@@ -3965,7 +4000,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>906036</v>
+        <v>893277</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>227</v>
@@ -3974,19 +4009,19 @@
         <v>228</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>229</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>27</v>
@@ -3995,13 +4030,13 @@
         <v>28</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>30</v>
@@ -4010,42 +4045,42 @@
         <v>30</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="5">
-        <v>45759.725694444445</v>
+        <v>45759.708333333328</v>
       </c>
       <c r="R37" s="0">
         <v>25</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>826068</v>
+        <v>906036</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>233</v>
-      </c>
       <c r="G38" s="0" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>27</v>
@@ -4054,31 +4089,90 @@
         <v>28</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L38" s="0" t="s">
         <v>30</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="N38" s="5">
-        <v>45714.409613923606</v>
-      </c>
-      <c r="O38" s="5">
-        <v>45714.422330590278</v>
+        <v>39</v>
+      </c>
+      <c r="N38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="5">
-        <v>45759.743055555555</v>
+        <v>45759.725694444445</v>
       </c>
       <c r="R38" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="U38" s="0" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>826068</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="5">
+        <v>45714.409613923606</v>
+      </c>
+      <c r="O39" s="5">
+        <v>45714.422330590278</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>45759.743055555555</v>
+      </c>
+      <c r="R39" s="0">
+        <v>50</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4088,7 +4182,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4096,310 +4190,310 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
@@ -4407,891 +4501,923 @@
         <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>493</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>267</v>
+        <v>495</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>495</v>
+        <v>500</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>501</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>497</v>
+        <v>272</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>502</v>
+        <v>507</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>508</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>515</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>531</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
